--- a/reference/Plot_Twist_Trope_Database.xlsx
+++ b/reference/Plot_Twist_Trope_Database.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H398"/>
+  <dimension ref="A1:I398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,20 +445,25 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>Uses/Ongoing</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>TV Tropes URL</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Subversion</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Subversion URL</t>
         </is>
@@ -487,15 +492,20 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target is struck by attacks from above, such as aerial bombardment or falling objects. Can be devastating against grounded enemies.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/DeathFromAbove</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Death from Below</t>
         </is>
@@ -524,15 +534,20 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target fires energy beams directly from their eyes. Classic superhero/villain power for ranged attacks.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/EyeBeam</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Blinding Flash</t>
         </is>
@@ -561,15 +576,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Melee weapon projects energy waves or cutting force at range. Combines sword skill with ranged capability.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/SwordBeam</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Blade Vortex</t>
         </is>
@@ -598,15 +618,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Electrical attack that jumps between multiple targets. Effective against groups but may hit allies.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ChainLightning</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Grounding Strike</t>
         </is>
@@ -635,20 +660,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target unleashes rapid barrage of weak attacks. Overwhelming volume compensates for individual weakness.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/SpamAttack</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Single-Stroke Battle</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/SingleStrokeBattle</t>
         </is>
@@ -677,20 +707,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target deals accumulated damage through many small wounds. Slow but inevitable defeat.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/DeathOfAThousandCuts</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>One-Hit Kill</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/OneHitKill</t>
         </is>
@@ -719,15 +754,20 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target creates duplicates of themselves or others. Outnumber enemies through multiplication.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/CloneArmy</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Singular Focus</t>
         </is>
@@ -756,15 +796,20 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Cutting wind attacks that slice through targets. Can be as devastating as blade strikes from a distance.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/RazorWind</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Crushing Pressure</t>
         </is>
@@ -793,15 +838,20 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target creates shockwave by striking ground with tremendous force. Area effect that can knock down multiple enemies.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/GroundPound</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Sky Strike</t>
         </is>
@@ -830,20 +880,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target becomes impossibly accurate with ranged attacks. Never misses critical shots.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ImprobableAimingSkills</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Imperial Stormtrooper Marksmanship Academy</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ImperialStormtrooperMarksmanshipAcademy</t>
         </is>
@@ -872,20 +927,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target becomes immovable defensive wall. Nearly impossible to move or damage.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/StoneWall</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Glass Cannon</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/GlassCannon</t>
         </is>
@@ -914,15 +974,20 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target launches their fist like a projectile. Extends melee range dramatically.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/RocketPunch</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Magnetic Recall</t>
         </is>
@@ -951,15 +1016,20 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target exhales with hurricane force. Can blow away enemies or projectiles.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/Superbreath</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Vacuum Lungs</t>
         </is>
@@ -988,15 +1058,20 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target generates protective barriers while fighting. Combines offense and defense seamlessly.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/BarrierWarrior</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Exposed Combatant</t>
         </is>
@@ -1025,15 +1100,20 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target automatically reflects attacks back at attackers. Makes attacking them dangerous.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/AttackReflector</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Damage Absorber</t>
         </is>
@@ -1062,15 +1142,20 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target can become incorporeal, passing through attacks. Nearly unhittable when active.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/IntangibleMan</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Over-Solidified</t>
         </is>
@@ -1099,15 +1184,20 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's body becomes incredibly durable. Shrugs off attacks that would kill normal people.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/Supertoughness</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Fragile Shell</t>
         </is>
@@ -1136,15 +1226,20 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target survives fatal damage with exactly 1 HP remaining. One final chance before defeat.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/LastChanceHitPoint</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Instant Death Threshold</t>
         </is>
@@ -1173,15 +1268,20 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target automatically comes back from death or defeat. Gets second chance in fight.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/Autorevive</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Permanent Death</t>
         </is>
@@ -1210,15 +1310,20 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's defenses automatically counter whatever attacks them. Each attack makes them stronger against it.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/AdaptiveArmor</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Static Defense</t>
         </is>
@@ -1247,15 +1352,20 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target generates protective energy barrier. Can shield themselves or others from harm.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ForceField</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Proximity Vulnerability</t>
         </is>
@@ -1284,15 +1394,20 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's final desperate defense. Fighting with back against wall at maximum effort.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/LastStand</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Strategic Retreat</t>
         </is>
@@ -1321,15 +1436,20 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target can access or create alternate space. Escape or trap enemies in other realm.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/PocketDimension</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Trapped in Reality</t>
         </is>
@@ -1358,15 +1478,20 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target becomes exceptionally skilled at everything they attempt. Natural excellence in all endeavors.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TheAce</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>The Screwup</t>
         </is>
@@ -1395,15 +1520,20 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target wields ultimate legendary weapon. The absolute best equipment possible.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/Infinity+1Sword</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Rusty Reliable</t>
         </is>
@@ -1432,15 +1562,20 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target persists through impossible hardship. Unbreakable determination.</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/HeroicResolve</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Breaking Point</t>
         </is>
@@ -1469,15 +1604,20 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target regains energy and capability when near defeat. Desperation fuels comeback.</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/HeroicSecondWind</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Exhaustion Cascade</t>
         </is>
@@ -1506,15 +1646,20 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's willpower overcomes any obstacle. Mental fortitude supreme.</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/HeroicWillpower</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Fatalistic Surrender</t>
         </is>
@@ -1543,15 +1688,20 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target has supernatural good fortune. Luck is actual power.</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/BornLucky</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Born Cursed</t>
         </is>
@@ -1580,15 +1730,20 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target can alter odds of events. Control chance itself.</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ProbabilityManipulation</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Fate's Prisoner</t>
         </is>
@@ -1617,15 +1772,20 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's attack has killed enemy who doesn't know yet. Delayed death effect.</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/YouAreAlreadyDead</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Slow Inevitable Death</t>
         </is>
@@ -1654,15 +1814,20 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's skills deteriorate during extended combat. Fatigue or stress causes failure.</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/CombatBreakdown</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Battle Clarity</t>
         </is>
@@ -1691,15 +1856,20 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's abilities operate automatically. Combat happens without conscious control.</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/PowersDoTheFighting</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Manual Override Required</t>
         </is>
@@ -1728,15 +1898,20 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target becomes stronger the more injured they are. Near-death grants peak power.</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/CriticalStatusBuff</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Near Death Penalty</t>
         </is>
@@ -1765,15 +1940,20 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target fights better when handicapped. Literal or metaphorical restraints improve performance.</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/WithMyHandsTied</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Needs Full Arsenal</t>
         </is>
@@ -1802,15 +1982,20 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's powerful attack fails to impress. Shows enemy's strength through their failure.</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TheWorfBarrage</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>One Shot Wonder</t>
         </is>
@@ -1839,15 +2024,20 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's eyes become red signaling danger. Visual threat indicator.</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/RedEyes,TakeWarning</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Innocent Eyes Deceive</t>
         </is>
@@ -1876,15 +2066,20 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target transforms into opposite of former self. Complete reversal.</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/BecameTheirOwnAntithesis</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Remained True to Self</t>
         </is>
@@ -1913,15 +2108,20 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target becomes significantly more capable. Power-up in competence.</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TookALevelInBadass</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Lost Their Edge</t>
         </is>
@@ -1950,15 +2150,20 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target perceives time in slow motion during combat. React to bullets and plan perfectly.</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/BulletTime</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Speed Blur</t>
         </is>
@@ -1987,15 +2192,20 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target jumps forward in time briefly. Avoids attacks by not being there.</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TimeSkip</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Time Lock</t>
         </is>
@@ -2024,15 +2234,20 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Time passes differently for target. Can spend subjective years training instantly.</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/YearInside,HourOutside</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Hour Inside, Year Outside</t>
         </is>
@@ -2061,15 +2276,20 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target rapidly teleports around battlefield. Impossible to pin down or predict.</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TeleportSpam</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Anchored Position</t>
         </is>
@@ -2098,15 +2318,20 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target moves so fast they seem to teleport short distances. Excellent for positioning and dodging.</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/FlashStep</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Glacial Movement</t>
         </is>
@@ -2135,15 +2360,20 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target moves fast enough to leave false images behind. Confuses enemies about true location.</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/Afterimage</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Telegraphed Motion</t>
         </is>
@@ -2172,15 +2402,20 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target vanishes in cloud of smoke for dramatic exit. Excellent for escapes and repositioning.</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/SmokeOut</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Spotlight Entrance</t>
         </is>
@@ -2209,15 +2444,20 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Combat has clear countermeasures. Game theory battles.</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TacticalRockpaperscissors</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Universal Effectiveness</t>
         </is>
@@ -2246,15 +2486,20 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target fights smart rather than fair. Uses every advantage including dirty tricks.</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/CombatPragmatist</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Honor-Bound Fighter</t>
         </is>
@@ -2283,15 +2528,20 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target can sense incoming threats. Spider-sense warning of danger.</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/DangerSense</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Oblivious to Threat</t>
         </is>
@@ -2320,15 +2570,20 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target suddenly regains stamina mid-fight. Push through exhaustion to continue.</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/SecondWind</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>Continuous Fatigue</t>
         </is>
@@ -2357,15 +2612,20 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target deals massive damage with surprise attacks from behind. Rewards positioning and stealth.</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/BackStab</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Honorable Duel</t>
         </is>
@@ -2394,15 +2654,20 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target throws disk-shaped objects that cut through targets. Boomerang effect possible.</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/DeadlyDisc</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>Harmless Sphere</t>
         </is>
@@ -2431,15 +2696,20 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's finger-pointing gesture becomes actual ranged attack. Absurdly casual deadly power.</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/FingerGun</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Full Body Strike</t>
         </is>
@@ -2468,15 +2738,20 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's attacks leave enemies unable to move. Incapacitates without killing.</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TheParalyzer</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>The Energizer</t>
         </is>
@@ -2505,15 +2780,20 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target throws blinding substance in enemy's face. Dirty fighting but effective.</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/AHandfulForAnEye</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>Transparent Tactics</t>
         </is>
@@ -2542,15 +2822,20 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target uses one enemy as improvised weapon against others. Humiliating and effective.</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ThrowTheMookAtThem</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>Protect the Minion</t>
         </is>
@@ -2579,15 +2864,20 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target deflects weapons with fist. Unarmed weapon defense.</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/PunchParry</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Block With Blade</t>
         </is>
@@ -2616,15 +2906,20 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target punches at superhuman speed. Dozens of strikes land in seconds.</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/RapidfireFisticuffs</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>Measured Strikes</t>
         </is>
@@ -2653,15 +2948,20 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target punches solid objects to intimidate or vent frustration. Demonstrates strength through property damage.</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/PunchAWall</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>Gentle Touch</t>
         </is>
@@ -2690,15 +2990,20 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's punches become supernaturally powerful. Simple but effective enhancement to unarmed combat.</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/PowerFist</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>Weak Slap</t>
         </is>
@@ -2727,15 +3032,20 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Touch heals injuries. Medical palm power.</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/HealingHands</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Withering Touch</t>
         </is>
@@ -2764,15 +3074,20 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target has preternatural awareness of danger. Warns of threats before they strike.</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/Spidersense</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Danger Blind</t>
         </is>
@@ -2801,20 +3116,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target moves far faster than humanly possible. Appears as blur in combat.</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/Superspeed</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>Slower Than a Snail</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/SlowerThanaSnail</t>
         </is>
@@ -2843,15 +3163,20 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target performs acrobatic roll to evade attacks. Classic dodge maneuver enhanced.</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/RollAway</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>Stand Firm</t>
         </is>
@@ -2880,15 +3205,20 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Protection provides no benefit. Defenses fail.</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ArmorIsUseless</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>Armor Decides All</t>
         </is>
@@ -2917,15 +3247,20 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target can use someone as shield that somehow blocks bullets. Dark and disturbing tactic.</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/BulletproofHumanShield</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>Fragile Meat Shield</t>
         </is>
@@ -2954,15 +3289,20 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's final performance before end. Swan song moment.</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TheLastDance</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>Opening Stumble</t>
         </is>
@@ -2991,15 +3331,20 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target deliberately holds back their full power. Self-imposed limitation for various reasons.</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/WillfullyWeak</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>Cannot Hold Back</t>
         </is>
@@ -3028,15 +3373,20 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target can walk on walls and ceilings like spider. Terrain advantages and unexpected angles.</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/WallCrawl</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>Slip and Slide</t>
         </is>
@@ -3065,15 +3415,20 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target leaps incredible distances and heights. Terrain becomes less limiting.</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/Superjump</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>Earthbound</t>
         </is>
@@ -3102,15 +3457,20 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target leaps between rooftops with ease. Urban mobility for pursuit and escape.</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/RoofHopping</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>Street Bound</t>
         </is>
@@ -3139,15 +3499,20 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target gains device that fires grappling hooks. Vertical mobility and swinging movement.</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/GrapplinghookPistol</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>Free Climb Only</t>
         </is>
@@ -3176,15 +3541,20 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target can jump again while already airborne. Defies physics for improved mobility.</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/DoubleJump</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>Single Bound</t>
         </is>
@@ -3213,15 +3583,20 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target can stick to and move along ceilings. Advantageous positioning and hiding spots.</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/CeilingCling</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>Floor Stuck</t>
         </is>
@@ -3250,15 +3625,20 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Pursuit leads to dangerous fall or descent. Only way forward is dangerous drop.</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/NoEscapeButDown</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>Only Way Is Up</t>
         </is>
@@ -3287,15 +3667,20 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target always has exactly what they need for the situation. Prepared for impossibly specific scenarios.</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/Crazyprepared</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>Flying Blind</t>
         </is>
@@ -3324,15 +3709,20 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target excels at planning and tactical thinking. Sees battlefield like chess board.</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TheStrategist</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>The Improviser</t>
         </is>
@@ -3361,15 +3751,20 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's obscure ability becomes suddenly crucial. Previously irrelevant skill saves the day.</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ChekhovsSkill</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>Forgotten Training</t>
         </is>
@@ -3398,15 +3793,20 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's shield always happens to block incoming attacks. Improbable but reliable defense.</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/Luckily,MyShieldWillProtectMe</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>Shield Attracts Danger</t>
         </is>
@@ -3435,15 +3835,20 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target uses acrobatic movement to navigate battlefield. Terrain becomes advantage rather than obstacle.</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/CombatParkour</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>Clumsy Navigation</t>
         </is>
@@ -3472,15 +3877,20 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Powered target fights using mundane techniques. Doesn't rely on special abilities.</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/FightsLikeANormal</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>Obviously Superhuman</t>
         </is>
@@ -3509,15 +3919,20 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target makes enemies take increased damage. Softens them up for finishing blows.</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/DamageincreasingDebuff</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>Resistance Buff</t>
         </is>
@@ -3546,15 +3961,20 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target removes beneficial effects from enemies. Strips away their advantages.</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/StatusbuffDispel</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>Permanent Enhancement</t>
         </is>
@@ -3583,15 +4003,20 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target restrains enemies with holds cutting off air supply. Non-lethal takedown option.</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ChokeHolds</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>Never Gets a Grip</t>
         </is>
@@ -3620,15 +4045,20 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target narrates battle as it happens. Play-by-play announcer for fights.</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/CombatCommentator</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>Silent Observer</t>
         </is>
@@ -3657,15 +4087,20 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Arrows are treated as minor inconvenience. Projectiles barely matter.</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/AnnoyingArrows</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>Devastating Projectiles</t>
         </is>
@@ -3694,15 +4129,20 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's fighting style is so erratic it's unpredictable. Randomness becomes tactical advantage.</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ConfusionFu</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>Predictable Pattern</t>
         </is>
@@ -3731,15 +4171,20 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target overcomes physical limitations through superior technique. Skill trumps raw power.</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/WeakButSkilled</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>Strong but Clumsy</t>
         </is>
@@ -3768,15 +4213,20 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target uses underhanded tactics without hesitation. Eye pokes, groin kicks, and worse.</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/FightingDirty</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>By the Book Fighter</t>
         </is>
@@ -3805,15 +4255,20 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target strikes specific vulnerable points for devastating effect. Skill overcomes brute force.</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/PressurePoint</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>Invulnerable Anatomy</t>
         </is>
@@ -3842,15 +4297,20 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target dodges so enemy attacks hit other enemies. Turns enemy strength against them.</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/DeadlyDodging</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>Suicidal Blocking</t>
         </is>
@@ -3879,15 +4339,20 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target excels at melee fighting. Must close distance to be effective.</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/CloserangeCombatant</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>Must Keep Distance</t>
         </is>
@@ -3916,15 +4381,20 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target excels at distance combat. Wants enemies far away.</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/LongrangeFighter</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>Melee Dependent</t>
         </is>
@@ -3953,15 +4423,20 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target traps enemy against wall. Cornering tactic.</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/PinnedToTheWall</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>Slips Away</t>
         </is>
@@ -3990,15 +4465,20 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target catches projectiles and throws them back. Turns enemy's attacks against them.</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/CatchAndReturn</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>Cannot Catch</t>
         </is>
@@ -4027,15 +4507,20 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target has weapon concealed in innocent location. Surprise attack from hidden armament.</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/PillowPistol</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>Obvious Weapon</t>
         </is>
@@ -4064,15 +4549,20 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target has distinctively awesome blade. May not be best but definitely coolest.</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/CoolSword</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>Mundane Blade</t>
         </is>
@@ -4101,15 +4591,20 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's weapon has multiple functions. One tool for every situation.</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/SwissarmyWeapon</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>Single Purpose Tool</t>
         </is>
@@ -4138,15 +4633,20 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's arrows have special effects beyond piercing. Explosive, net, or grappling arrows.</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TrickArrow</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>Straight Shot Only</t>
         </is>
@@ -4175,15 +4675,20 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's crossbow fires rapidly like machine gun. Medieval weapon with modern rate.</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/AutomaticCrossbows</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>Manual Reload</t>
         </is>
@@ -4212,15 +4717,20 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target never runs out of ammunition. Reload-free shooting for days.</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/BottomlessMagazines</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>Constant Reloading</t>
         </is>
@@ -4249,15 +4759,20 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target has belt with tools for every situation. Batman-style prepared equipment.</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/UtilityBelt</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>Empty Pockets</t>
         </is>
@@ -4286,15 +4801,20 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target can pull large objects from nowhere. Magical or dimensional storage space.</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/Hammerspace</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>Limited Capacity</t>
         </is>
@@ -4323,15 +4843,20 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Environment becomes deadly labyrinth. Enemies get lost and picked off.</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/MazeOfDoom</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>Straight Corridor</t>
         </is>
@@ -4360,15 +4885,20 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Area fills with obscuring mist. Visibility drops, atmosphere becomes tense.</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/OminousFog</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>Crystal Clear</t>
         </is>
@@ -4397,15 +4927,20 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Practice space is genuinely dangerous. Training involves real risk.</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/DeadlyTrainingArea</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>Padded Practice Room</t>
         </is>
@@ -4434,15 +4969,20 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Thunder punctuates dramatic moments perfectly. Nature emphasizes tension.</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/DramaticThunder</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>Awkward Silence</t>
         </is>
@@ -4471,15 +5011,20 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Wind billows dramatically at key moments. Hair and coats blow cinematically.</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/DramaticWind</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>Still Air</t>
         </is>
@@ -4508,15 +5053,20 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target can see through solid objects. Perceive hidden threats and opportunities.</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/XrayVision</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>Surface Vision Only</t>
         </is>
@@ -4545,15 +5095,20 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's senses operate at superhuman levels. Hear heartbeats, see in dark, smell fear.</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/Supersenses</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>Sensory Deprivation</t>
         </is>
@@ -4582,15 +5137,20 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target perceives everything in area. No blind spots, total awareness.</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/AllseeingEye</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>Tunnel Vision</t>
         </is>
@@ -4619,15 +5179,20 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target can manipulate or ignore gravity. Floating, flying, or making things weightless.</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/Antigravity</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>Extra Gravity</t>
         </is>
@@ -4656,15 +5221,20 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's fighting skill becomes supernaturally enhanced. Peak martial arts mastery with mystical edge.</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/SupernaturalMartialArts</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>Mundane Fighting Style</t>
         </is>
@@ -4693,20 +5263,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target naturally attracts loyal followers and allies. People want to join their cause.</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/MagneticHero</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>Toxic Presence</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ToxicPresence</t>
         </is>
@@ -4735,20 +5310,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target holds group together emotionally. Their presence maintains team unity.</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TheHeart</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>The Wedge</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TheWedge</t>
         </is>
@@ -4777,20 +5357,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target becomes irresistibly charming to someone. Social manipulation through likeability.</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/CharmPerson</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>Repel Person</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/RepelPerson</t>
         </is>
@@ -4819,20 +5404,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Shared hardship creates deep bonds. Adversity transforms strangers to friends.</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/FireforgedFriends</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>Hardship Breeds Resentment</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/HardshipBreedsResentment</t>
         </is>
@@ -4861,20 +5451,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target forms unbreakable friendships. Bonds that survive any test.</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TrueCompanions</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
+      <c r="H119" t="inlineStr">
         <is>
           <t>Fair Weather Friends</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
+      <c r="I119" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/FairWeatherFriends</t>
         </is>
@@ -4903,20 +5498,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's friendship involves constant bickering. Insults prove affection.</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/VitriolicBestBuds</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t>Toxic Friendship</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
+      <c r="I120" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ToxicFriendship</t>
         </is>
@@ -4945,20 +5545,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target creates family from non-relatives. Chosen bonds stronger than blood.</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/FoundFamily</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
+      <c r="H121" t="inlineStr">
         <is>
           <t>Broken Home</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
+      <c r="I121" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/BrokenHome</t>
         </is>
@@ -4987,20 +5592,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target forms military-style brotherhood. Combat forges family bonds.</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/BandOfBrothers</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
+      <c r="H122" t="inlineStr">
         <is>
           <t>Shallow Camaraderie</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
+      <c r="I122" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ShallowCamaraderie</t>
         </is>
@@ -5029,20 +5639,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target becomes fiercely protective of someone. Overwhelming urge to defend.</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/BigBrotherInstinct</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>Indifferent Protector</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
+      <c r="I123" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/IndifferentProtector</t>
         </is>
@@ -5071,20 +5686,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Outsider becomes accepted family member. Non-relative treated as kin.</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/AdoptedToTheHouse</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
+      <c r="H124" t="inlineStr">
         <is>
           <t>Eternal Outsider</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
+      <c r="I124" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/EternalOutsider</t>
         </is>
@@ -5113,20 +5733,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Competition strengthens friendship rather than destroying it. Respectful opposition.</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/FriendlyRival</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t>Bitter Competitor</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
+      <c r="I125" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/BitterCompetitor</t>
         </is>
@@ -5155,20 +5780,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Unlikely people become genuine friends. Strange pairing that works.</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/OddFriendship</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr">
+      <c r="H126" t="inlineStr">
         <is>
           <t>Kindred Spirits Only</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
+      <c r="I126" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/KindredSpiritsOnly</t>
         </is>
@@ -5197,20 +5827,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target becomes noticeably nicer. Personality improves dramatically.</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TookALevelInKindness</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr">
+      <c r="H127" t="inlineStr">
         <is>
           <t>Took a Level in Jerkass</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
+      <c r="I127" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TookaLevelinJerkass</t>
         </is>
@@ -5239,20 +5874,25 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target maintains optimism despite everything. Relentlessly positive outlook.</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ThePollyanna</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr">
+      <c r="H128" t="inlineStr">
         <is>
           <t>The Cynic</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
+      <c r="I128" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TheCynic</t>
         </is>
@@ -5281,20 +5921,25 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target becomes nurturing caretaker of group. Emotional support and practical care.</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TeamMom</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
+      <c r="H129" t="inlineStr">
         <is>
           <t>Team Burden</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
+      <c r="I129" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TeamBurden</t>
         </is>
@@ -5323,20 +5968,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target becomes authoritative protector of group. Discipline with protection.</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TeamDad</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr">
+      <c r="H130" t="inlineStr">
         <is>
           <t>Absent Authority</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
+      <c r="I130" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/AbsentAuthority</t>
         </is>
@@ -5365,20 +6015,25 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target guides and protects while teaching. Protective instruction.</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/BigBrotherMentor</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr">
+      <c r="H131" t="inlineStr">
         <is>
           <t>Toxic Mentor</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
+      <c r="I131" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ToxicMentor</t>
         </is>
@@ -5407,20 +6062,25 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target becomes someone's reason to continue. Their existence gives purpose.</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/WorthLivingFor</t>
         </is>
       </c>
-      <c r="G132" t="inlineStr">
+      <c r="H132" t="inlineStr">
         <is>
           <t>Reason to Give Up</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
+      <c r="I132" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ReasontoGiveUp</t>
         </is>
@@ -5449,20 +6109,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target becomes absolutely faithful to someone. Betrayal becomes impossible.</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/UndyingLoyalty</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr">
+      <c r="H133" t="inlineStr">
         <is>
           <t>Wavering Faith</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
+      <c r="I133" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/WaveringFaith</t>
         </is>
@@ -5491,20 +6156,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target becomes feared reputation walking. Everyone knows to fear them.</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TheDreaded</t>
         </is>
       </c>
-      <c r="G134" t="inlineStr">
+      <c r="H134" t="inlineStr">
         <is>
           <t>The Joke</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
+      <c r="I134" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TheJoke</t>
         </is>
@@ -5533,20 +6203,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target speaks truth regardless of feelings. Unfiltered frank assessment.</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/BrutalHonesty</t>
         </is>
       </c>
-      <c r="G135" t="inlineStr">
+      <c r="H135" t="inlineStr">
         <is>
           <t>Brutal Lies</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
+      <c r="I135" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/BrutalLies</t>
         </is>
@@ -5575,20 +6250,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target physically cannot speak falsehood. Compulsive truthfulness.</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/CannotTellALie</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr">
+      <c r="H136" t="inlineStr">
         <is>
           <t>Compulsive Liar</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
+      <c r="I136" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/CompulsiveLiar</t>
         </is>
@@ -5617,20 +6297,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target blabs everything they know. Zero discretion or filter.</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/CannotKeepASecret</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr">
+      <c r="H137" t="inlineStr">
         <is>
           <t>Vault of Secrets</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
+      <c r="I137" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/VaultofSecrets</t>
         </is>
@@ -5659,20 +6344,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Strange events constantly happen around target. Normalcy is impossible.</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/WeirdnessMagnet</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr">
+      <c r="H138" t="inlineStr">
         <is>
           <t>Normalcy Aura</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
+      <c r="I138" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/NormalcyAura</t>
         </is>
@@ -5701,20 +6391,25 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target is accident-prone and clumsy. Constantly tripping or dropping things.</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TheKlutz</t>
         </is>
       </c>
-      <c r="G139" t="inlineStr">
+      <c r="H139" t="inlineStr">
         <is>
           <t>Supernatural Grace</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
+      <c r="I139" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/SupernaturalGrace</t>
         </is>
@@ -5743,20 +6438,25 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's intelligence makes them threatening. Too smart for comfort.</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/LethallyStupid</t>
         </is>
       </c>
-      <c r="G140" t="inlineStr">
+      <c r="H140" t="inlineStr">
         <is>
           <t>Lethally Stupid</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
+      <c r="I140" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/LethallyStupid</t>
         </is>
@@ -5785,20 +6485,25 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target has flawless manners and social grace. Never commits faux pas.</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/NoSocialSkills</t>
         </is>
       </c>
-      <c r="G141" t="inlineStr">
+      <c r="H141" t="inlineStr">
         <is>
           <t>No Social Skills</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
+      <c r="I141" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/NoSocialSkills</t>
         </is>
@@ -5827,20 +6532,25 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target is impossibly accurate in everything. Never makes mistakes.</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/LordErrorprone</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr">
+      <c r="H142" t="inlineStr">
         <is>
           <t>Lord Error-Prone</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
+      <c r="I142" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/LordErrorProne</t>
         </is>
@@ -5869,20 +6579,25 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target seeks credit and recognition constantly. Attention-seeking behavior.</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/GloryHound</t>
         </is>
       </c>
-      <c r="G143" t="inlineStr">
+      <c r="H143" t="inlineStr">
         <is>
           <t>Self-Effacing</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
+      <c r="I143" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/SelfEffacing</t>
         </is>
@@ -5911,20 +6626,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target becomes completely self-centered. World revolves around them.</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ItsAllAboutMe</t>
         </is>
       </c>
-      <c r="G144" t="inlineStr">
+      <c r="H144" t="inlineStr">
         <is>
           <t>Doormat</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
+      <c r="I144" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/Doormat</t>
         </is>
@@ -5953,20 +6673,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target achieves mythical status while alive. Walking tall tale.</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/LivingLegend</t>
         </is>
       </c>
-      <c r="G145" t="inlineStr">
+      <c r="H145" t="inlineStr">
         <is>
           <t>Forgotten Hero</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
+      <c r="I145" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ForgottenHero</t>
         </is>
@@ -5995,15 +6720,20 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Action perfectly demonstrates target's personality. Defining introduction.</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/EstablishingCharacterMoment</t>
         </is>
       </c>
-      <c r="G146" t="inlineStr">
+      <c r="H146" t="inlineStr">
         <is>
           <t>Character Drift</t>
         </is>
@@ -6032,20 +6762,25 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's expertise is dismissed until proven right. Cassandra-like knowledge.</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/IgnoredExpert</t>
         </is>
       </c>
-      <c r="G147" t="inlineStr">
+      <c r="H147" t="inlineStr">
         <is>
           <t>False Authority</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
+      <c r="I147" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/FalseAuthority</t>
         </is>
@@ -6074,15 +6809,20 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's statement is immediately contradicted. Tempting fate success.</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/InstantlyProvenWrong</t>
         </is>
       </c>
-      <c r="G148" t="inlineStr">
+      <c r="H148" t="inlineStr">
         <is>
           <t>Vindicated Immediately</t>
         </is>
@@ -6111,15 +6851,20 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target is confused for someone else. Case of wrong person.</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/MistakenIdentity</t>
         </is>
       </c>
-      <c r="G149" t="inlineStr">
+      <c r="H149" t="inlineStr">
         <is>
           <t>Unmistakable Recognition</t>
         </is>
@@ -6148,15 +6893,20 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target is described as beautiful though appearance unchanged. Everyone treats them as gorgeous.</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/InformedAttractiveness</t>
         </is>
       </c>
-      <c r="G150" t="inlineStr">
+      <c r="H150" t="inlineStr">
         <is>
           <t>Obvious Beauty</t>
         </is>
@@ -6185,15 +6935,20 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target is wrongly believed to be dangerous. Reputation exceeds reality.</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/MistakenForBadass</t>
         </is>
       </c>
-      <c r="G151" t="inlineStr">
+      <c r="H151" t="inlineStr">
         <is>
           <t>Mistaken for Harmless</t>
         </is>
@@ -6222,20 +6977,25 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target is consistently underrated by others. Hidden capability surprises.</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/Underestimated</t>
         </is>
       </c>
-      <c r="G152" t="inlineStr">
+      <c r="H152" t="inlineStr">
         <is>
           <t>Overrated</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
+      <c r="I152" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/Overrated</t>
         </is>
@@ -6264,15 +7024,20 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Group agrees on moral line they won't cross. Universal boundaries.</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/EveryoneHasStandards</t>
         </is>
       </c>
-      <c r="G153" t="inlineStr">
+      <c r="H153" t="inlineStr">
         <is>
           <t>Anything Goes</t>
         </is>
@@ -6301,20 +7066,25 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Villain becomes hero. Redemption and side-switching.</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/HeelfaceTurn</t>
         </is>
       </c>
-      <c r="G154" t="inlineStr">
+      <c r="H154" t="inlineStr">
         <is>
           <t>Face-Heel Turn</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
+      <c r="I154" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/FaceHeelTurn</t>
         </is>
@@ -6343,20 +7113,25 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Hero becomes villain. Corruption and betrayal.</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/FaceheelTurn</t>
         </is>
       </c>
-      <c r="G155" t="inlineStr">
+      <c r="H155" t="inlineStr">
         <is>
           <t>Heel-Face Turn</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
+      <c r="I155" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/HeelFaceTurn</t>
         </is>
@@ -6385,15 +7160,20 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Minor rival becomes running joke. Petty eternal opposition.</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/SitcomArchnemesis</t>
         </is>
       </c>
-      <c r="G156" t="inlineStr">
+      <c r="H156" t="inlineStr">
         <is>
           <t>Friendly Competition</t>
         </is>
@@ -6422,20 +7202,25 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target seeks to atone for past wrongs. Journey to earn forgiveness.</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/RedemptionQuest</t>
         </is>
       </c>
-      <c r="G157" t="inlineStr">
+      <c r="H157" t="inlineStr">
         <is>
           <t>Corruption Arc</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
+      <c r="I157" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/CorruptionArc</t>
         </is>
@@ -6464,15 +7249,20 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target realizes they've been terrible person. Self-awareness of awfulness.</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/JerkassRealization</t>
         </is>
       </c>
-      <c r="G158" t="inlineStr">
+      <c r="H158" t="inlineStr">
         <is>
           <t>Justified Asshole</t>
         </is>
@@ -6501,15 +7291,20 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Contentious relationship reveals genuine care. Hidden affection becomes obvious.</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/Aw,Look!TheyReallyDoLoveEachOther</t>
         </is>
       </c>
-      <c r="G159" t="inlineStr">
+      <c r="H159" t="inlineStr">
         <is>
           <t>Paper-Thin Affection</t>
         </is>
@@ -6538,20 +7333,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Love provides tangible power or protection. Emotional connection becomes weapon.</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ThePowerOfLove</t>
         </is>
       </c>
-      <c r="G160" t="inlineStr">
+      <c r="H160" t="inlineStr">
         <is>
           <t>The Power of Hate</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
+      <c r="I160" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ThePowerofHate</t>
         </is>
@@ -6580,20 +7380,25 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target converses with beasts. Animal communication.</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/SpeaksFluentAnimal</t>
         </is>
       </c>
-      <c r="G161" t="inlineStr">
+      <c r="H161" t="inlineStr">
         <is>
           <t>Animal Babel</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
+      <c r="I161" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/AnimalBabel</t>
         </is>
@@ -6622,15 +7427,20 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target can understand all languages. Universal translation.</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TranslatorMicrobes</t>
         </is>
       </c>
-      <c r="G162" t="inlineStr">
+      <c r="H162" t="inlineStr">
         <is>
           <t>Permanent Babel</t>
         </is>
@@ -6659,15 +7469,20 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Device or power translates all speech. Instant communication.</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/UniversalTranslator</t>
         </is>
       </c>
-      <c r="G163" t="inlineStr">
+      <c r="H163" t="inlineStr">
         <is>
           <t>Partial Translation</t>
         </is>
@@ -6696,15 +7511,20 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target can perfectly mimic any voice. Vocal shapeshifting ability.</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/VoiceChangeling</t>
         </is>
       </c>
-      <c r="G164" t="inlineStr">
+      <c r="H164" t="inlineStr">
         <is>
           <t>Vocal Signature</t>
         </is>
@@ -6733,15 +7553,20 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target projects voice to different location. Throw voice for deception.</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/Ventriloquism</t>
         </is>
       </c>
-      <c r="G165" t="inlineStr">
+      <c r="H165" t="inlineStr">
         <is>
           <t>Cannot Hide Source</t>
         </is>
@@ -6770,15 +7595,20 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Private conversation builds relationship. Behind-the-scenes bonding.</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ClosedDoorRapport</t>
         </is>
       </c>
-      <c r="G166" t="inlineStr">
+      <c r="H166" t="inlineStr">
         <is>
           <t>Overheard Hostility</t>
         </is>
@@ -6807,15 +7637,20 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target can listen to phone conversations. Secret intelligence gathering.</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/LandlineEavesdropping</t>
         </is>
       </c>
-      <c r="G167" t="inlineStr">
+      <c r="H167" t="inlineStr">
         <is>
           <t>Secure Communication</t>
         </is>
@@ -6844,15 +7679,20 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Elderly woman solves mysteries. Grandma detective.</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/LittleOldLadyInvestigates</t>
         </is>
       </c>
-      <c r="G168" t="inlineStr">
+      <c r="H168" t="inlineStr">
         <is>
           <t>Young Punk Detective</t>
         </is>
@@ -6881,20 +7721,25 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target can tell when someone is lying. Truth-sensing ability.</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/LieDetector</t>
         </is>
       </c>
-      <c r="G169" t="inlineStr">
+      <c r="H169" t="inlineStr">
         <is>
           <t>Gullibility Field</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
+      <c r="I169" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/GullibilityField</t>
         </is>
@@ -6923,15 +7768,20 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target gains intellectual curiosity and studiousness. Scholarly demeanor develops.</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/GlassesCuriosity</t>
         </is>
       </c>
-      <c r="G170" t="inlineStr">
+      <c r="H170" t="inlineStr">
         <is>
           <t>Glasses Indifference</t>
         </is>
@@ -6960,15 +7810,20 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target swears willing service to another. Chosen subordination.</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/VoluntaryVassal</t>
         </is>
       </c>
-      <c r="G171" t="inlineStr">
+      <c r="H171" t="inlineStr">
         <is>
           <t>Reluctant Subordinate</t>
         </is>
@@ -6997,15 +7852,20 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target appears wholesome but acts rebellious. Innocent appearance, wild behavior.</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/BadGoodGirl</t>
         </is>
       </c>
-      <c r="G172" t="inlineStr">
+      <c r="H172" t="inlineStr">
         <is>
           <t>Good Bad Boy</t>
         </is>
@@ -7034,15 +7894,20 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target combines refined culture with combat skill. Sophisticated and dangerous.</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/CulturedBadass</t>
         </is>
       </c>
-      <c r="G173" t="inlineStr">
+      <c r="H173" t="inlineStr">
         <is>
           <t>Brutish Thug</t>
         </is>
@@ -7071,15 +7936,20 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target reveals unexpected complexity or skill. More than meets eye.</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/HiddenDepths</t>
         </is>
       </c>
-      <c r="G174" t="inlineStr">
+      <c r="H174" t="inlineStr">
         <is>
           <t>Shallow Surface</t>
         </is>
@@ -7108,15 +7978,20 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target lacks academic knowledge but has practical wisdom. Street smart not book smart.</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/BookDumb</t>
         </is>
       </c>
-      <c r="G175" t="inlineStr">
+      <c r="H175" t="inlineStr">
         <is>
           <t>Street Stupid</t>
         </is>
@@ -7145,20 +8020,25 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target combines physical might with intelligence. Muscle and brains together.</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/GeniusBruiser</t>
         </is>
       </c>
-      <c r="G176" t="inlineStr">
+      <c r="H176" t="inlineStr">
         <is>
           <t>Strong Back, Weak Mind</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
+      <c r="I176" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/StrongBack,WeakMind</t>
         </is>
@@ -7187,15 +8067,20 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target constantly seeks physical affection. Hugger and snuggler.</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/CuddleBug</t>
         </is>
       </c>
-      <c r="G177" t="inlineStr">
+      <c r="H177" t="inlineStr">
         <is>
           <t>Touch Averse</t>
         </is>
@@ -7224,15 +8109,20 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target is compelled to interact with cute things. Cannot resist adorable.</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/CutenessProximity</t>
         </is>
       </c>
-      <c r="G178" t="inlineStr">
+      <c r="H178" t="inlineStr">
         <is>
           <t>Repelled by Cute</t>
         </is>
@@ -7261,15 +8151,20 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target knows how to entertain and charm audiences. Natural showman.</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/CrowdPleaser</t>
         </is>
       </c>
-      <c r="G179" t="inlineStr">
+      <c r="H179" t="inlineStr">
         <is>
           <t>Audience Killer</t>
         </is>
@@ -7298,15 +8193,20 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target follows strict routines obsessively. Consistency is everything.</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/CreatureOfHabit</t>
         </is>
       </c>
-      <c r="G180" t="inlineStr">
+      <c r="H180" t="inlineStr">
         <is>
           <t>Chaos Embracer</t>
         </is>
@@ -7335,15 +8235,20 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's beverage choice defines their personality. You are what you drink.</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/DrinkbasedCharacterization</t>
         </is>
       </c>
-      <c r="G181" t="inlineStr">
+      <c r="H181" t="inlineStr">
         <is>
           <t>Beverage Neutral</t>
         </is>
@@ -7372,15 +8277,20 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target is stuck in past era culturally. Living in wrong decade.</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/DiscoDan</t>
         </is>
       </c>
-      <c r="G182" t="inlineStr">
+      <c r="H182" t="inlineStr">
         <is>
           <t>Modern Maven</t>
         </is>
@@ -7409,15 +8319,20 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target is eccentric but highly competent. Weird but effective.</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/BunnyearsLawyer</t>
         </is>
       </c>
-      <c r="G183" t="inlineStr">
+      <c r="H183" t="inlineStr">
         <is>
           <t>Boring Incompetent</t>
         </is>
@@ -7446,15 +8361,20 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target has bizarre disconnected thought process. Lives in own reality.</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/Cloudcuckoolander</t>
         </is>
       </c>
-      <c r="G184" t="inlineStr">
+      <c r="H184" t="inlineStr">
         <is>
           <t>Painfully Grounded</t>
         </is>
@@ -7483,15 +8403,20 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target has odd social awareness from isolation. Educated but socially strange.</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/HomeschooledKids</t>
         </is>
       </c>
-      <c r="G185" t="inlineStr">
+      <c r="H185" t="inlineStr">
         <is>
           <t>Street Educated</t>
         </is>
@@ -7520,15 +8445,20 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target speaks in riddles and implications. Unclear meaningful dialogue.</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/CrypticConversation</t>
         </is>
       </c>
-      <c r="G186" t="inlineStr">
+      <c r="H186" t="inlineStr">
         <is>
           <t>Blunt Communication</t>
         </is>
@@ -7557,15 +8487,20 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target uses unnecessarily complex vocabulary. Pretentious elaborate speech.</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/SesquipedalianLoquaciousness</t>
         </is>
       </c>
-      <c r="G187" t="inlineStr">
+      <c r="H187" t="inlineStr">
         <is>
           <t>Monosyllabic Grunt</t>
         </is>
@@ -7594,15 +8529,20 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target can't understand metaphors or implications. Literal-minded communication.</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/BluntMetaphorsTrauma</t>
         </is>
       </c>
-      <c r="G188" t="inlineStr">
+      <c r="H188" t="inlineStr">
         <is>
           <t>Flowery Euphemisms</t>
         </is>
@@ -7631,15 +8571,20 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target has distinctive speech pattern or catchphrase. Memorable linguistic quirk.</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/VerbalTic</t>
         </is>
       </c>
-      <c r="G189" t="inlineStr">
+      <c r="H189" t="inlineStr">
         <is>
           <t>Perfect Diction</t>
         </is>
@@ -7668,20 +8613,25 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target speaks minimally but meaningfully. Silence punctuated by importance.</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TheQuietOne</t>
         </is>
       </c>
-      <c r="G190" t="inlineStr">
+      <c r="H190" t="inlineStr">
         <is>
           <t>Never Shuts Up</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
+      <c r="I190" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/NeverShutsUp</t>
         </is>
@@ -7710,20 +8660,25 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target talks constantly and rapidly. Never stops chattering.</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/MotorMouth</t>
         </is>
       </c>
-      <c r="G191" t="inlineStr">
+      <c r="H191" t="inlineStr">
         <is>
           <t>Selective Mutism</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
+      <c r="I191" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/SelectiveMutism</t>
         </is>
@@ -7752,15 +8707,20 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target becomes tall and dramatically beautiful. Amazonian beauty and presence.</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/StatuesqueStunner</t>
         </is>
       </c>
-      <c r="G192" t="inlineStr">
+      <c r="H192" t="inlineStr">
         <is>
           <t>Short and Sweet</t>
         </is>
@@ -7789,15 +8749,20 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Adorable but accident-prone person. Endearing clutz.</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/CuteClumsyGirl</t>
         </is>
       </c>
-      <c r="G193" t="inlineStr">
+      <c r="H193" t="inlineStr">
         <is>
           <t>Graceful Amazon</t>
         </is>
@@ -7826,15 +8791,20 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target gains exaggerated curved hips. Distinctive hourglass silhouette.</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/HartmanHips</t>
         </is>
       </c>
-      <c r="G194" t="inlineStr">
+      <c r="H194" t="inlineStr">
         <is>
           <t>Straight Lines</t>
         </is>
@@ -7863,15 +8833,20 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's hair becomes impossibly long. Floor-length or even longer.</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/RapunzelHair</t>
         </is>
       </c>
-      <c r="G195" t="inlineStr">
+      <c r="H195" t="inlineStr">
         <is>
           <t>Buzz Cut</t>
         </is>
@@ -7900,15 +8875,20 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's chest is larger than clothing suggests. Revealed when clothes change.</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/HiddenBuxom</t>
         </is>
       </c>
-      <c r="G196" t="inlineStr">
+      <c r="H196" t="inlineStr">
         <is>
           <t>Obvious Assets</t>
         </is>
@@ -7937,15 +8917,20 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target gains dramatically increased bust size. Comic book proportions.</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TheMostCommonSuperpower</t>
         </is>
       </c>
-      <c r="G197" t="inlineStr">
+      <c r="H197" t="inlineStr">
         <is>
           <t>Realistically Proportioned</t>
         </is>
@@ -7974,15 +8959,20 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's biological sex changes. Male becomes female or vice versa.</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/GenderBender</t>
         </is>
       </c>
-      <c r="G198" t="inlineStr">
+      <c r="H198" t="inlineStr">
         <is>
           <t>Gender Locked</t>
         </is>
@@ -8011,15 +9001,20 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target looks remarkably like relative. Unmistakable family connection.</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/StrongFamilyResemblance</t>
         </is>
       </c>
-      <c r="G199" t="inlineStr">
+      <c r="H199" t="inlineStr">
         <is>
           <t>No Resemblance</t>
         </is>
@@ -8048,15 +9043,20 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target grows unusual or impressive facial hair. Distinctive memorable beard.</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/WeirdBeard</t>
         </is>
       </c>
-      <c r="G200" t="inlineStr">
+      <c r="H200" t="inlineStr">
         <is>
           <t>Clean Shaven</t>
         </is>
@@ -8085,15 +9085,20 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's hair becomes artfully disheveled. Stylishly unkempt appearance.</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/MessyHair</t>
         </is>
       </c>
-      <c r="G201" t="inlineStr">
+      <c r="H201" t="inlineStr">
         <is>
           <t>Perfect Coif</t>
         </is>
@@ -8122,15 +9127,20 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target appears attractive to hide danger. Predatory false advertising.</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/AlluringAnglerfish</t>
         </is>
       </c>
-      <c r="G202" t="inlineStr">
+      <c r="H202" t="inlineStr">
         <is>
           <t>Honest Appearance</t>
         </is>
@@ -8159,15 +9169,20 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's face becomes disturbing or damaged. Horrifying visage that unsettles.</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/FacialHorror</t>
         </is>
       </c>
-      <c r="G203" t="inlineStr">
+      <c r="H203" t="inlineStr">
         <is>
           <t>Flawless Face</t>
         </is>
@@ -8196,15 +9211,20 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target joins social class defined by beauty. Aristocracy of attractiveness.</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TheBeautifulElite</t>
         </is>
       </c>
-      <c r="G204" t="inlineStr">
+      <c r="H204" t="inlineStr">
         <is>
           <t>Ugly Aristocracy</t>
         </is>
@@ -8233,15 +9253,20 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target appears however they wish to be seen. Illusion of beauty or normalcy.</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/Glamour</t>
         </is>
       </c>
-      <c r="G205" t="inlineStr">
+      <c r="H205" t="inlineStr">
         <is>
           <t>Anti-Illusion</t>
         </is>
@@ -8270,15 +9295,20 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target is 'plain' but actually still attractive. Not ugly, just not noticed.</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/HollywoodHomely</t>
         </is>
       </c>
-      <c r="G206" t="inlineStr">
+      <c r="H206" t="inlineStr">
         <is>
           <t>Actually Gorgeous</t>
         </is>
@@ -8307,15 +9337,20 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target is endearingly ugly. Too hideous to not be adorable.</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/UglyCute</t>
         </is>
       </c>
-      <c r="G207" t="inlineStr">
+      <c r="H207" t="inlineStr">
         <is>
           <t>Disturbingly Perfect</t>
         </is>
@@ -8344,15 +9379,20 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target becomes almost but not quite human. Disturbing near-human appearance.</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/UncannyValley</t>
         </is>
       </c>
-      <c r="G208" t="inlineStr">
+      <c r="H208" t="inlineStr">
         <is>
           <t>Comfortably Human</t>
         </is>
@@ -8381,15 +9421,20 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target can change physical form at will. Transform into other shapes.</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/Shapeshifter</t>
         </is>
       </c>
-      <c r="G209" t="inlineStr">
+      <c r="H209" t="inlineStr">
         <is>
           <t>Fixed Form</t>
         </is>
@@ -8418,15 +9463,20 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target controls their transformations consciously. Deliberate form changing.</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/VoluntaryShapeshifting</t>
         </is>
       </c>
-      <c r="G210" t="inlineStr">
+      <c r="H210" t="inlineStr">
         <is>
           <t>Involuntary Change</t>
         </is>
@@ -8455,15 +9505,20 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target appears identical to someone else. Perfect physical duplicate.</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/Doppelgãƒæ’ã‚â¤nger</t>
         </is>
       </c>
-      <c r="G211" t="inlineStr">
+      <c r="H211" t="inlineStr">
         <is>
           <t>Unique Appearance</t>
         </is>
@@ -8492,15 +9547,20 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target physically divides into multiple versions. Personality becomes bodies.</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/LiteralSplitPersonality</t>
         </is>
       </c>
-      <c r="G212" t="inlineStr">
+      <c r="H212" t="inlineStr">
         <is>
           <t>Unified Self</t>
         </is>
@@ -8529,15 +9589,20 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target transforms between good and evil versions. Dual nature made physical.</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/Jekyll&amp;Hyde</t>
         </is>
       </c>
-      <c r="G213" t="inlineStr">
+      <c r="H213" t="inlineStr">
         <is>
           <t>Consistent Personality</t>
         </is>
@@ -8566,15 +9631,20 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target mentally crashes from overwhelming stress. Blue screen of death for heroes.</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/HeroicBsod</t>
         </is>
       </c>
-      <c r="G214" t="inlineStr">
+      <c r="H214" t="inlineStr">
         <is>
           <t>Unshakeable Resolve</t>
         </is>
@@ -8603,15 +9673,20 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Innocent target suffers trauma and loss. Corruption of innocence.</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/BreakTheCutie</t>
         </is>
       </c>
-      <c r="G215" t="inlineStr">
+      <c r="H215" t="inlineStr">
         <is>
           <t>Harden the Brute</t>
         </is>
@@ -8640,15 +9715,20 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's anger finally overwhelms control. Calm shatters into fury.</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/RageBreakingPoint</t>
         </is>
       </c>
-      <c r="G216" t="inlineStr">
+      <c r="H216" t="inlineStr">
         <is>
           <t>Calm Under Pressure</t>
         </is>
@@ -8677,15 +9757,20 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target becomes coldly, quietly enraged. Scarier than loud anger.</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TranquilFury</t>
         </is>
       </c>
-      <c r="G217" t="inlineStr">
+      <c r="H217" t="inlineStr">
         <is>
           <t>Loud Anger</t>
         </is>
@@ -8714,15 +9799,20 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Specific trigger causes explosive reaction. Guaranteed rage switch.</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/BerserkButton</t>
         </is>
       </c>
-      <c r="G218" t="inlineStr">
+      <c r="H218" t="inlineStr">
         <is>
           <t>Nothing Bothers Them</t>
         </is>
@@ -8751,15 +9841,20 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's fury makes them relentless. Anger fuels impossible persistence.</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/UnstoppableRage</t>
         </is>
       </c>
-      <c r="G219" t="inlineStr">
+      <c r="H219" t="inlineStr">
         <is>
           <t>Controlled Anger</t>
         </is>
@@ -8788,15 +9883,20 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target laughs at their own mental breakdown. Sanity fractures into giggles.</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/LaughingMad</t>
         </is>
       </c>
-      <c r="G220" t="inlineStr">
+      <c r="H220" t="inlineStr">
         <is>
           <t>Crying Sane</t>
         </is>
@@ -8825,15 +9925,20 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target shows traumatized vacant expression. Eyes see horrors not present.</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ThousandyardStare</t>
         </is>
       </c>
-      <c r="G221" t="inlineStr">
+      <c r="H221" t="inlineStr">
         <is>
           <t>Sharp Focus</t>
         </is>
@@ -8862,15 +9967,20 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target persists despite believing failure inevitable. Heroic pessimism.</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/DeterminedDefeatist</t>
         </is>
       </c>
-      <c r="G222" t="inlineStr">
+      <c r="H222" t="inlineStr">
         <is>
           <t>Casual Optimist</t>
         </is>
@@ -8899,15 +10009,20 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target shows no emotional reaction to anything. Imperturbable calm maintained.</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TheStoic</t>
         </is>
       </c>
-      <c r="G223" t="inlineStr">
+      <c r="H223" t="inlineStr">
         <is>
           <t>Emotional Wreck</t>
         </is>
@@ -8936,15 +10051,20 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target is fascinated by disturbing things. Loves what should horrify.</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/NightmareFetishist</t>
         </is>
       </c>
-      <c r="G224" t="inlineStr">
+      <c r="H224" t="inlineStr">
         <is>
           <t>Mundane Enthusiast</t>
         </is>
@@ -8973,15 +10093,20 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target undergoes meaningful personality growth. Change and maturity over time.</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/CharacterDevelopment</t>
         </is>
       </c>
-      <c r="G225" t="inlineStr">
+      <c r="H225" t="inlineStr">
         <is>
           <t>Static Character</t>
         </is>
@@ -9010,15 +10135,20 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target enjoys doing the right thing. Heroism is its own reward.</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/GoodFeelsGood</t>
         </is>
       </c>
-      <c r="G226" t="inlineStr">
+      <c r="H226" t="inlineStr">
         <is>
           <t>Evil Feels Better</t>
         </is>
@@ -9047,15 +10177,20 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target is jaded and unsurprised by anything. Nothing shocks anymore.</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/SeenItAll</t>
         </is>
       </c>
-      <c r="G227" t="inlineStr">
+      <c r="H227" t="inlineStr">
         <is>
           <t>Perpetually Amazed</t>
         </is>
@@ -9084,15 +10219,20 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target compulsively helps everyone. Cannot not intervene.</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ChronicHeroSyndrome</t>
         </is>
       </c>
-      <c r="G228" t="inlineStr">
+      <c r="H228" t="inlineStr">
         <is>
           <t>Selective Helper</t>
         </is>
@@ -9121,15 +10261,20 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Disasters follow target everywhere. Trouble finds them constantly.</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/DoomMagnet</t>
         </is>
       </c>
-      <c r="G229" t="inlineStr">
+      <c r="H229" t="inlineStr">
         <is>
           <t>Danger Repellent</t>
         </is>
@@ -9158,15 +10303,20 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target gets hopelessly lost constantly. Navigation completely fails.</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/NoSenseOfDirection</t>
         </is>
       </c>
-      <c r="G230" t="inlineStr">
+      <c r="H230" t="inlineStr">
         <is>
           <t>Perfect Navigation</t>
         </is>
@@ -9195,15 +10345,20 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target brings bad luck to everyone around. Walking curse on fortune.</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TheJinx</t>
         </is>
       </c>
-      <c r="G231" t="inlineStr">
+      <c r="H231" t="inlineStr">
         <is>
           <t>Lucky Charm</t>
         </is>
@@ -9232,15 +10387,20 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target is easily distracted by everything. Focus is impossible.</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/AttentionDeficit...Ooh,Shiny!</t>
         </is>
       </c>
-      <c r="G232" t="inlineStr">
+      <c r="H232" t="inlineStr">
         <is>
           <t>Hyperfocus</t>
         </is>
@@ -9269,15 +10429,20 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target is constantly anxious and jittery. Perpetual state of worry.</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/NervousWreck</t>
         </is>
       </c>
-      <c r="G233" t="inlineStr">
+      <c r="H233" t="inlineStr">
         <is>
           <t>Unflappable Cool</t>
         </is>
@@ -9306,15 +10471,20 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target is beautifully, tragically insane. Madness with grace.</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TheOphelia</t>
         </is>
       </c>
-      <c r="G234" t="inlineStr">
+      <c r="H234" t="inlineStr">
         <is>
           <t>The Stoic Sage</t>
         </is>
@@ -9343,15 +10513,20 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target hides madness behind normal facade. Functional insanity.</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/MaskOfSanity</t>
         </is>
       </c>
-      <c r="G235" t="inlineStr">
+      <c r="H235" t="inlineStr">
         <is>
           <t>Obvious Madness</t>
         </is>
@@ -9380,15 +10555,20 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target cannot sleep or needs no sleep. Perpetually wakeful state.</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TheInsomniac</t>
         </is>
       </c>
-      <c r="G236" t="inlineStr">
+      <c r="H236" t="inlineStr">
         <is>
           <t>Perpetual Sleeper</t>
         </is>
@@ -9417,15 +10597,20 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target has consuming behavioral compulsions. Must follow rituals.</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ObsessiveCompulsive</t>
         </is>
       </c>
-      <c r="G237" t="inlineStr">
+      <c r="H237" t="inlineStr">
         <is>
           <t>Chaotically Relaxed</t>
         </is>
@@ -9454,15 +10639,20 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's compulsions reach superhuman intensity. Obsession beyond normal.</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/SuperOcd</t>
         </is>
       </c>
-      <c r="G238" t="inlineStr">
+      <c r="H238" t="inlineStr">
         <is>
           <t>Extreme Messiness</t>
         </is>
@@ -9491,15 +10681,20 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target hoards bizarre unusual items. Curator of weird.</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/CollectorOfTheStrange</t>
         </is>
       </c>
-      <c r="G239" t="inlineStr">
+      <c r="H239" t="inlineStr">
         <is>
           <t>Discards Everything</t>
         </is>
@@ -9528,15 +10723,20 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target can't process supernatural events. Mind filters impossible.</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/WeirdnessCensor</t>
         </is>
       </c>
-      <c r="G240" t="inlineStr">
+      <c r="H240" t="inlineStr">
         <is>
           <t>Sees All Strangeness</t>
         </is>
@@ -9565,15 +10765,20 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's abilities don't fit their world. Powers from wrong genre.</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/WrongContextMagic</t>
         </is>
       </c>
-      <c r="G241" t="inlineStr">
+      <c r="H241" t="inlineStr">
         <is>
           <t>Fits Right In</t>
         </is>
@@ -9602,15 +10807,20 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target is blind but has prophetic vision. Can't see present, sees future.</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/BlindSeer</t>
         </is>
       </c>
-      <c r="G242" t="inlineStr">
+      <c r="H242" t="inlineStr">
         <is>
           <t>Sighted Ignorant</t>
         </is>
@@ -9639,15 +10849,20 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target is protected by destiny. Fate ensures survival for prophesied role.</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ProphecyArmor</t>
         </is>
       </c>
-      <c r="G243" t="inlineStr">
+      <c r="H243" t="inlineStr">
         <is>
           <t>Destined Doom</t>
         </is>
@@ -9676,15 +10891,20 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Scene shows events from past. Reveals previous occurrences.</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/Flashback</t>
         </is>
       </c>
-      <c r="G244" t="inlineStr">
+      <c r="H244" t="inlineStr">
         <is>
           <t>Memory Block</t>
         </is>
@@ -9713,15 +10933,20 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Scene shows glimpses of future. Preview what will come.</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/FlashForward</t>
         </is>
       </c>
-      <c r="G245" t="inlineStr">
+      <c r="H245" t="inlineStr">
         <is>
           <t>Stuck in Present</t>
         </is>
@@ -9750,15 +10975,20 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target relives same period repeatedly. Trapped in time loop.</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/GroundHogDayLoop</t>
         </is>
       </c>
-      <c r="G246" t="inlineStr">
+      <c r="H246" t="inlineStr">
         <is>
           <t>Unrepeatable Moments</t>
         </is>
@@ -9787,15 +11017,20 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target or scene moves in dramatically slowed time. Emphasizes critical moments.</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/SlowMotion</t>
         </is>
       </c>
-      <c r="G247" t="inlineStr">
+      <c r="H247" t="inlineStr">
         <is>
           <t>Fast Forward</t>
         </is>
@@ -9824,15 +11059,20 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target can perceive additional details in frozen moments. Notice things others miss.</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/FreezeframeBonus</t>
         </is>
       </c>
-      <c r="G248" t="inlineStr">
+      <c r="H248" t="inlineStr">
         <is>
           <t>Blurred Details</t>
         </is>
@@ -9861,15 +11101,20 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target gains tremendous physical strength. Can lift cars and punch through walls.</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/Superstrength</t>
         </is>
       </c>
-      <c r="G249" t="inlineStr">
+      <c r="H249" t="inlineStr">
         <is>
           <t>Super-Weakness</t>
         </is>
@@ -9898,15 +11143,20 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target reacts with superhuman speed. Near-precognitive responses.</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/Superreflexes</t>
         </is>
       </c>
-      <c r="G250" t="inlineStr">
+      <c r="H250" t="inlineStr">
         <is>
           <t>Delayed Reactions</t>
         </is>
@@ -9935,15 +11185,20 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target has extremely fast reaction time. Quick twitch responses.</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/LightningReflexes</t>
         </is>
       </c>
-      <c r="G251" t="inlineStr">
+      <c r="H251" t="inlineStr">
         <is>
           <t>Sluggish Response</t>
         </is>
@@ -9972,20 +11227,25 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Faithful beast fights beside target. Animal partner.</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/LoyalAnimalCompanion</t>
         </is>
       </c>
-      <c r="G252" t="inlineStr">
+      <c r="H252" t="inlineStr">
         <is>
           <t>Right-Hand Cat</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
+      <c r="I252" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/RightHandCat</t>
         </is>
@@ -10014,15 +11274,20 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Animal becomes smarter and more capable. Enhanced beast intelligence.</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/AmplifiedAnimalAptitude</t>
         </is>
       </c>
-      <c r="G253" t="inlineStr">
+      <c r="H253" t="inlineStr">
         <is>
           <t>Bestial Regression</t>
         </is>
@@ -10051,15 +11316,20 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Animal is impossibly adorable. Weaponized cuteness.</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/RidiculouslyCuteCreature</t>
         </is>
       </c>
-      <c r="G254" t="inlineStr">
+      <c r="H254" t="inlineStr">
         <is>
           <t>Uncanny Valley Pet</t>
         </is>
@@ -10088,15 +11358,20 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Beast can speak human language. Communication with animals.</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TalkingAnimal</t>
         </is>
       </c>
-      <c r="G255" t="inlineStr">
+      <c r="H255" t="inlineStr">
         <is>
           <t>Silent Beast</t>
         </is>
@@ -10125,15 +11400,20 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Mechanical companion assists target. Helpful android friend.</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/RobotBuddy</t>
         </is>
       </c>
-      <c r="G256" t="inlineStr">
+      <c r="H256" t="inlineStr">
         <is>
           <t>Rogue AI</t>
         </is>
@@ -10162,15 +11442,20 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Lesser partner assists hero. Faithful subordinate ally.</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/Sidekick</t>
         </is>
       </c>
-      <c r="G257" t="inlineStr">
+      <c r="H257" t="inlineStr">
         <is>
           <t>Rival Partner</t>
         </is>
@@ -10199,15 +11484,20 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target is associated with specific animal. Creature theme.</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/AnimalMotif</t>
         </is>
       </c>
-      <c r="G258" t="inlineStr">
+      <c r="H258" t="inlineStr">
         <is>
           <t>Anti-Theme</t>
         </is>
@@ -10236,15 +11526,20 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Large canine is gentle and loving. Friendly giant pet.</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/BigFriendlyDog</t>
         </is>
       </c>
-      <c r="G259" t="inlineStr">
+      <c r="H259" t="inlineStr">
         <is>
           <t>Small Mean Dog</t>
         </is>
@@ -10273,15 +11568,20 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Adorable young dog. Irresistible puppy.</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/PreciousPuppy</t>
         </is>
       </c>
-      <c r="G260" t="inlineStr">
+      <c r="H260" t="inlineStr">
         <is>
           <t>Grizzled Old Hound</t>
         </is>
@@ -10310,15 +11610,20 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Birds display unusual intelligence. Smart corvids.</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/CleverCrows</t>
         </is>
       </c>
-      <c r="G261" t="inlineStr">
+      <c r="H261" t="inlineStr">
         <is>
           <t>Foolish Fowl</t>
         </is>
@@ -10347,15 +11652,20 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Beast knows things it shouldn't. Supernatural animal intuition.</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/UncannyAnimalInstincts</t>
         </is>
       </c>
-      <c r="G262" t="inlineStr">
+      <c r="H262" t="inlineStr">
         <is>
           <t>Domesticated Dependence</t>
         </is>
@@ -10384,15 +11694,20 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Evil person has feline companion. Villain's cat.</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/RighthandCat</t>
         </is>
       </c>
-      <c r="G263" t="inlineStr">
+      <c r="H263" t="inlineStr">
         <is>
           <t>Loyal Dog</t>
         </is>
@@ -10421,15 +11736,20 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Canine performs brave deeds. Heroic hound.</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/HeroicDog</t>
         </is>
       </c>
-      <c r="G264" t="inlineStr">
+      <c r="H264" t="inlineStr">
         <is>
           <t>Villainous Cat</t>
         </is>
@@ -10458,15 +11778,20 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Group has shared animal member. Collective mascot creature.</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TeamPet</t>
         </is>
       </c>
-      <c r="G265" t="inlineStr">
+      <c r="H265" t="inlineStr">
         <is>
           <t>Team Pest</t>
         </is>
@@ -10495,15 +11820,20 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Dangerous impressive raptor. Intimidating bird.</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/BigBadassBirdOfPrey</t>
         </is>
       </c>
-      <c r="G266" t="inlineStr">
+      <c r="H266" t="inlineStr">
         <is>
           <t>Tiny Songbird</t>
         </is>
@@ -10532,15 +11862,20 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Giant insects. Huge arthropods.</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/BigCreepycrawlies</t>
         </is>
       </c>
-      <c r="G267" t="inlineStr">
+      <c r="H267" t="inlineStr">
         <is>
           <t>Microscopic Bugs</t>
         </is>
@@ -10569,15 +11904,20 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Enormous dog. Giant canine.</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/CanisMajor</t>
         </is>
       </c>
-      <c r="G268" t="inlineStr">
+      <c r="H268" t="inlineStr">
         <is>
           <t>Canis Minor</t>
         </is>
@@ -10606,15 +11946,20 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Huge flying creature. Massive aerial beast.</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/GiantFlyer</t>
         </is>
       </c>
-      <c r="G269" t="inlineStr">
+      <c r="H269" t="inlineStr">
         <is>
           <t>Flightless Bird</t>
         </is>
@@ -10643,15 +11988,20 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Attractive humanoid with monstrous features. Appealing monster.</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/CuteMonsterGirl</t>
         </is>
       </c>
-      <c r="G270" t="inlineStr">
+      <c r="H270" t="inlineStr">
         <is>
           <t>Horrific Monster Boy</t>
         </is>
@@ -10680,15 +12030,20 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target sees through animal's eyes. Beast surveillance.</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/AnimalEyeSpy</t>
         </is>
       </c>
-      <c r="G271" t="inlineStr">
+      <c r="H271" t="inlineStr">
         <is>
           <t>Blind Pet</t>
         </is>
@@ -10717,15 +12072,20 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Clothing hugs body's curves. Painted-on garments.</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/FormfittingWardrobe</t>
         </is>
       </c>
-      <c r="G272" t="inlineStr">
+      <c r="H272" t="inlineStr">
         <is>
           <t>Baggy Clothes</t>
         </is>
@@ -10754,15 +12114,20 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Clothing is nearly transparent. See-through fabric.</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/VaporWear</t>
         </is>
       </c>
-      <c r="G273" t="inlineStr">
+      <c r="H273" t="inlineStr">
         <is>
           <t>Excessive Layers</t>
         </is>
@@ -10791,15 +12156,20 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Outfit clings to every contour. Second-skin clothing.</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/SkintightSuit</t>
         </is>
       </c>
-      <c r="G274" t="inlineStr">
+      <c r="H274" t="inlineStr">
         <is>
           <t>Loose Outfit</t>
         </is>
@@ -10828,15 +12198,20 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target achieves fashion model proportions. Impossibly perfect measurements.</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/SupermodelFigure</t>
         </is>
       </c>
-      <c r="G275" t="inlineStr">
+      <c r="H275" t="inlineStr">
         <is>
           <t>Average Build</t>
         </is>
@@ -10865,15 +12240,20 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's hair looks professionally styled at all times. Never messy or out of place.</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ImpossiblyPerfectHair</t>
         </is>
       </c>
-      <c r="G276" t="inlineStr">
+      <c r="H276" t="inlineStr">
         <is>
           <t>Realistic Bedhead</t>
         </is>
@@ -10902,15 +12282,20 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Face glows with embarrassment visibly. Anime-style blushing.</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/LuminescentBlush</t>
         </is>
       </c>
-      <c r="G277" t="inlineStr">
+      <c r="H277" t="inlineStr">
         <is>
           <t>Pale Composure</t>
         </is>
@@ -10939,15 +12324,20 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Object falls in dramatic slow motion. Emphasized descent.</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/SlowMotionDrop</t>
         </is>
       </c>
-      <c r="G278" t="inlineStr">
+      <c r="H278" t="inlineStr">
         <is>
           <t>Rapid Collapse</t>
         </is>
@@ -10976,15 +12366,20 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Wind conveniently reveals or conceals. Perfectly timed breeze.</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/WindGustTiming</t>
         </is>
       </c>
-      <c r="G279" t="inlineStr">
+      <c r="H279" t="inlineStr">
         <is>
           <t>Still Air Moment</t>
         </is>
@@ -11013,15 +12408,20 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Steam obscures nudity strategically. Censoring fog.</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ConvenientSteam</t>
         </is>
       </c>
-      <c r="G280" t="inlineStr">
+      <c r="H280" t="inlineStr">
         <is>
           <t>Inconvenient Clarity</t>
         </is>
@@ -11050,15 +12450,20 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Costume improves to show more. Less clothing upgrade.</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/WardrobeUpgrade</t>
         </is>
       </c>
-      <c r="G281" t="inlineStr">
+      <c r="H281" t="inlineStr">
         <is>
           <t>Costume Downgrade</t>
         </is>
@@ -11087,15 +12492,20 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Combat damages clothes revealingly. Battle damage exposure.</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ActionDressRip</t>
         </is>
       </c>
-      <c r="G282" t="inlineStr">
+      <c r="H282" t="inlineStr">
         <is>
           <t>Indestructible Outfit</t>
         </is>
@@ -11124,15 +12534,20 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Movement is supernaturally elegant. Perfect physical grace.</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ImpossiblyGraceful</t>
         </is>
       </c>
-      <c r="G283" t="inlineStr">
+      <c r="H283" t="inlineStr">
         <is>
           <t>Realistically Clumsy</t>
         </is>
@@ -11161,15 +12576,20 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Circumstance causes physical proximity. Awkward closeness.</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ForcedIntoCloseQuarters</t>
         </is>
       </c>
-      <c r="G284" t="inlineStr">
+      <c r="H284" t="inlineStr">
         <is>
           <t>Excessive Personal Space</t>
         </is>
@@ -11198,15 +12618,20 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Trip causes compromising position. Fortunate accident.</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ConvenientStumble</t>
         </is>
       </c>
-      <c r="G285" t="inlineStr">
+      <c r="H285" t="inlineStr">
         <is>
           <t>Perfect Balance</t>
         </is>
@@ -11235,15 +12660,20 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Innocent action appears romantic. Misunderstanding situation.</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/AccidentalIntimacy</t>
         </is>
       </c>
-      <c r="G286" t="inlineStr">
+      <c r="H286" t="inlineStr">
         <is>
           <t>Deliberate Distance</t>
         </is>
@@ -11272,15 +12702,20 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Petals swirl dramatically around scene. Romantic flower shower.</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/FlowerPetalStorm</t>
         </is>
       </c>
-      <c r="G287" t="inlineStr">
+      <c r="H287" t="inlineStr">
         <is>
           <t>Debris Shower</t>
         </is>
@@ -11309,15 +12744,20 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Clothes swap impossibly fast. Magic wardrobe swap.</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/InstantCostumeChange</t>
         </is>
       </c>
-      <c r="G288" t="inlineStr">
+      <c r="H288" t="inlineStr">
         <is>
           <t>Stuck in One Outfit</t>
         </is>
@@ -11346,15 +12786,20 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Fighter wears impractical revealing outfit. Combat in underwear.</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/BattleLingerie</t>
         </is>
       </c>
-      <c r="G289" t="inlineStr">
+      <c r="H289" t="inlineStr">
         <is>
           <t>Combat Armor</t>
         </is>
@@ -11383,15 +12828,20 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Sudden display of revealing swimwear. Bikini moment.</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/SwimsuitReveal</t>
         </is>
       </c>
-      <c r="G290" t="inlineStr">
+      <c r="H290" t="inlineStr">
         <is>
           <t>Full Coverage</t>
         </is>
@@ -11420,15 +12870,20 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Medical care requires intimate proximity. Nursing closeness.</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TendToWoundsClosely</t>
         </is>
       </c>
-      <c r="G291" t="inlineStr">
+      <c r="H291" t="inlineStr">
         <is>
           <t>Distant Medical Care</t>
         </is>
@@ -11457,15 +12912,20 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Physical instruction involves touching. Hands-on teaching.</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TrainingGetsHandsy</t>
         </is>
       </c>
-      <c r="G292" t="inlineStr">
+      <c r="H292" t="inlineStr">
         <is>
           <t>Professional Distance</t>
         </is>
@@ -11494,15 +12954,20 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Massage creates tension. Therapeutic touching.</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/MassageScenario</t>
         </is>
       </c>
-      <c r="G293" t="inlineStr">
+      <c r="H293" t="inlineStr">
         <is>
           <t>No Physical Contact</t>
         </is>
@@ -11531,15 +12996,20 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Breeze lifts skirt dramatically. Marilyn Monroe moment.</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/WindBillowsSkirt</t>
         </is>
       </c>
-      <c r="G294" t="inlineStr">
+      <c r="H294" t="inlineStr">
         <is>
           <t>Weighted Hem</t>
         </is>
@@ -11568,15 +13038,20 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Awesomeness overrides logic. Cool factor is justification.</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/RuleOfCool</t>
         </is>
       </c>
-      <c r="G295" t="inlineStr">
+      <c r="H295" t="inlineStr">
         <is>
           <t>Rule of Boring</t>
         </is>
@@ -11605,15 +13080,20 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target desperately wants to unsee something. Mental scouring needed.</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/BrainBleach</t>
         </is>
       </c>
-      <c r="G296" t="inlineStr">
+      <c r="H296" t="inlineStr">
         <is>
           <t>Pleasant Memory</t>
         </is>
@@ -11642,15 +13122,20 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Innocuous detail becomes crucial later. Setup and payoff.</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ChekhovsGun</t>
         </is>
       </c>
-      <c r="G297" t="inlineStr">
+      <c r="H297" t="inlineStr">
         <is>
           <t>Red Herring</t>
         </is>
@@ -11679,15 +13164,20 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Sweet appearance hides dark reality. False utopia.</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/CrapsaccharineWorld</t>
         </is>
       </c>
-      <c r="G298" t="inlineStr">
+      <c r="H298" t="inlineStr">
         <is>
           <t>Genuinely Nice Place</t>
         </is>
@@ -11716,15 +13206,20 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Desert environment with specific hazards. Sandy terrain challenges.</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ShiftingSandLand</t>
         </is>
       </c>
-      <c r="G299" t="inlineStr">
+      <c r="H299" t="inlineStr">
         <is>
           <t>Solid Ground</t>
         </is>
@@ -11753,15 +13248,20 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Powerful object that corrupts users. Dangerous magical item.</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ArtifactOfDoom</t>
         </is>
       </c>
-      <c r="G300" t="inlineStr">
+      <c r="H300" t="inlineStr">
         <is>
           <t>Artifact of Blessing</t>
         </is>
@@ -11790,15 +13290,20 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Crystal contains magical energy. Crystalline power source.</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/PowerCrystal</t>
         </is>
       </c>
-      <c r="G301" t="inlineStr">
+      <c r="H301" t="inlineStr">
         <is>
           <t>Power Drain</t>
         </is>
@@ -11827,15 +13332,20 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Amazing power used for trivial tasks. Waste of potential.</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/MundaneUtility</t>
         </is>
       </c>
-      <c r="G302" t="inlineStr">
+      <c r="H302" t="inlineStr">
         <is>
           <t>Only Combat Use</t>
         </is>
@@ -11864,15 +13374,20 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Digital content will disappear soon. Ephemeral internet material.</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TemporaryOnlineContent</t>
         </is>
       </c>
-      <c r="G303" t="inlineStr">
+      <c r="H303" t="inlineStr">
         <is>
           <t>Permanent Archive</t>
         </is>
@@ -11901,15 +13416,20 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Costume grants or contains powers. Power in apparel.</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ClothesMakeTheSuperman</t>
         </is>
       </c>
-      <c r="G304" t="inlineStr">
+      <c r="H304" t="inlineStr">
         <is>
           <t>Naked Power</t>
         </is>
@@ -11938,15 +13458,20 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target has impressively awesome motorcycle. Distinctive rad vehicle.</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/CoolBike</t>
         </is>
       </c>
-      <c r="G305" t="inlineStr">
+      <c r="H305" t="inlineStr">
         <is>
           <t>Lame Transportation</t>
         </is>
@@ -11975,15 +13500,20 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's outfit is too awesome to be real. Fashion beyond possibility.</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ImpossiblyCoolClothes</t>
         </is>
       </c>
-      <c r="G306" t="inlineStr">
+      <c r="H306" t="inlineStr">
         <is>
           <t>Boring Outfit</t>
         </is>
@@ -12012,15 +13542,20 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target appears identical to someone else. Perfect physical duplicate.</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/Doppelgã¤nger</t>
         </is>
       </c>
-      <c r="G307" t="inlineStr">
+      <c r="H307" t="inlineStr">
         <is>
           <t>Unique Appearance</t>
         </is>
@@ -12049,15 +13584,20 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's fortune operates by visible numerical rules. Luck as game mechanic.</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/LuckStat</t>
         </is>
       </c>
-      <c r="G308" t="inlineStr">
+      <c r="H308" t="inlineStr">
         <is>
           <t>Misfortune Stat</t>
         </is>
@@ -12086,15 +13626,20 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Number seven brings target exceptional luck. Numerology made real.</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/LuckySeven</t>
         </is>
       </c>
-      <c r="G309" t="inlineStr">
+      <c r="H309" t="inlineStr">
         <is>
           <t>Unlucky Thirteen</t>
         </is>
@@ -12123,15 +13668,20 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Absurd plan succeeds through audacity. Too stupid to fail.</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/CrazyEnoughToWork</t>
         </is>
       </c>
-      <c r="G310" t="inlineStr">
+      <c r="H310" t="inlineStr">
         <is>
           <t>Too Sane to Succeed</t>
         </is>
@@ -12160,15 +13710,20 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Supernatural things can't be seen by ordinary people. Selective visibility.</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/InvisibleToNormals</t>
         </is>
       </c>
-      <c r="G311" t="inlineStr">
+      <c r="H311" t="inlineStr">
         <is>
           <t>Visible to All</t>
         </is>
@@ -12197,15 +13752,20 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Villain attempts evil but fails to be threatening. Ineffectual badness.</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/PokeThePoodle</t>
         </is>
       </c>
-      <c r="G312" t="inlineStr">
+      <c r="H312" t="inlineStr">
         <is>
           <t>Terrorize the Beast</t>
         </is>
@@ -12234,15 +13794,20 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target reveals presence from darkness dramatically. Shadow entrance.</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/EmergingFromTheShadows</t>
         </is>
       </c>
-      <c r="G313" t="inlineStr">
+      <c r="H313" t="inlineStr">
         <is>
           <t>Spotlight Entry</t>
         </is>
@@ -12271,15 +13836,20 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Dark appearance doesn't mean villainous. Gothic but good.</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/DarkIsNotEvil</t>
         </is>
       </c>
-      <c r="G314" t="inlineStr">
+      <c r="H314" t="inlineStr">
         <is>
           <t>Dark Is Evil</t>
         </is>
@@ -12308,15 +13878,20 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Bright appearance hides evil nature. Holy but horrible.</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/LightIsNotGood</t>
         </is>
       </c>
-      <c r="G315" t="inlineStr">
+      <c r="H315" t="inlineStr">
         <is>
           <t>Light Is Good</t>
         </is>
@@ -12345,15 +13920,20 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's abilities reflect their character. Power matches personality.</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/PersonalityPowers</t>
         </is>
       </c>
-      <c r="G316" t="inlineStr">
+      <c r="H316" t="inlineStr">
         <is>
           <t>Generic Powers</t>
         </is>
@@ -12382,15 +13962,20 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target gains power from afflictions. Turns weakness into strength.</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/StatusEffectpoweredAbility</t>
         </is>
       </c>
-      <c r="G317" t="inlineStr">
+      <c r="H317" t="inlineStr">
         <is>
           <t>Clean Slate Power</t>
         </is>
@@ -12419,15 +14004,20 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Multiple people have same bizarre thought. Shared weirdness.</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/StrangeMindsThinkAlike</t>
         </is>
       </c>
-      <c r="G318" t="inlineStr">
+      <c r="H318" t="inlineStr">
         <is>
           <t>Unique Perspective</t>
         </is>
@@ -12456,15 +14046,20 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target invites disaster through confidence. Jinx by words.</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TemptingFate</t>
         </is>
       </c>
-      <c r="G319" t="inlineStr">
+      <c r="H319" t="inlineStr">
         <is>
           <t>Averting Destiny</t>
         </is>
@@ -12493,15 +14088,20 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target defeated by own weapon or plan. Self-sabotage.</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/HoistByTheirOwnPetard</t>
         </is>
       </c>
-      <c r="G320" t="inlineStr">
+      <c r="H320" t="inlineStr">
         <is>
           <t>Saved by Own Trap</t>
         </is>
@@ -12530,15 +14130,20 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Improbable events align perfectly. Plot convenience manifest.</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ContrivedCoincidence</t>
         </is>
       </c>
-      <c r="G321" t="inlineStr">
+      <c r="H321" t="inlineStr">
         <is>
           <t>Logical Sequence</t>
         </is>
@@ -12567,15 +14172,20 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Strong character loses to show threat. Designated jobber.</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TheWorfEffect</t>
         </is>
       </c>
-      <c r="G322" t="inlineStr">
+      <c r="H322" t="inlineStr">
         <is>
           <t>Respect Through Victory</t>
         </is>
@@ -12604,15 +14214,20 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Being frozen causes no harm. Convenient ice preservation.</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/HarmlessFreezing</t>
         </is>
       </c>
-      <c r="G323" t="inlineStr">
+      <c r="H323" t="inlineStr">
         <is>
           <t>Deadly Ice</t>
         </is>
@@ -12641,15 +14256,20 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Heat doesn't hurt unless touching fire. Hollywood thermodynamics.</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ConvectionSchmonvection</t>
         </is>
       </c>
-      <c r="G324" t="inlineStr">
+      <c r="H324" t="inlineStr">
         <is>
           <t>Realistic Heat Transfer</t>
         </is>
@@ -12678,15 +14298,20 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target commands and controls animals. Master of beasts.</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/BeastMaster</t>
         </is>
       </c>
-      <c r="G325" t="inlineStr">
+      <c r="H325" t="inlineStr">
         <is>
           <t>Beast Prey</t>
         </is>
@@ -12715,15 +14340,20 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target manipulates others' feelings. Emotional puppetry.</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/EmotionControl</t>
         </is>
       </c>
-      <c r="G326" t="inlineStr">
+      <c r="H326" t="inlineStr">
         <is>
           <t>Emotion Immunity</t>
         </is>
@@ -12752,15 +14382,20 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's gaze controls minds. Eye-based mind control.</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/HypnoticEyes</t>
         </is>
       </c>
-      <c r="G327" t="inlineStr">
+      <c r="H327" t="inlineStr">
         <is>
           <t>Trust-Inducing Gaze</t>
         </is>
@@ -12789,15 +14424,20 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target controls many minds simultaneously. Group mind control.</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/MassHypnosis</t>
         </is>
       </c>
-      <c r="G328" t="inlineStr">
+      <c r="H328" t="inlineStr">
         <is>
           <t>Individual Resistance</t>
         </is>
@@ -12826,15 +14466,20 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target commands others' actions directly. Mental domination.</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/MindControl</t>
         </is>
       </c>
-      <c r="G329" t="inlineStr">
+      <c r="H329" t="inlineStr">
         <is>
           <t>Free Will Shield</t>
         </is>
@@ -12863,15 +14508,20 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target moves others like marionettes. Physical mental control.</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/PeoplePuppets</t>
         </is>
       </c>
-      <c r="G330" t="inlineStr">
+      <c r="H330" t="inlineStr">
         <is>
           <t>Cannot Be Moved</t>
         </is>
@@ -12900,15 +14550,20 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target hears others' thoughts. Telepathic eavesdropping.</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/MindReading</t>
         </is>
       </c>
-      <c r="G331" t="inlineStr">
+      <c r="H331" t="inlineStr">
         <is>
           <t>Thought Blocking</t>
         </is>
@@ -12937,20 +14592,25 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target can sense others' emotions. Psychic emotional awareness.</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TheEmpath</t>
         </is>
       </c>
-      <c r="G332" t="inlineStr">
+      <c r="H332" t="inlineStr">
         <is>
           <t>Emotion Blind</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
+      <c r="I332" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/EmotionBlind</t>
         </is>
@@ -12979,20 +14639,25 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Friendship grants literal power or advantage. Bonds become strength.</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ThePowerOfFriendship</t>
         </is>
       </c>
-      <c r="G333" t="inlineStr">
+      <c r="H333" t="inlineStr">
         <is>
           <t>Power of Isolation</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
+      <c r="I333" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/PowerofIsolation</t>
         </is>
@@ -13021,15 +14686,20 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target enters battle despite limited visibility. Fights effectively while blinded.</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/StepIntoTheBlindingFight</t>
         </is>
       </c>
-      <c r="G334" t="inlineStr">
+      <c r="H334" t="inlineStr">
         <is>
           <t>Clear Sightlines</t>
         </is>
@@ -13058,15 +14728,20 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's attacks are so wild they endanger everyone nearby. Effectiveness through recklessness.</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/DangerousBackswing</t>
         </is>
       </c>
-      <c r="G335" t="inlineStr">
+      <c r="H335" t="inlineStr">
         <is>
           <t>Controlled Strikes</t>
         </is>
@@ -13095,15 +14770,20 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target coordinates attacks from multiple directions. Classic encirclement tactic.</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/PincerManeuver</t>
         </is>
       </c>
-      <c r="G336" t="inlineStr">
+      <c r="H336" t="inlineStr">
         <is>
           <t>Single Front</t>
         </is>
@@ -13132,15 +14812,20 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target uses minor enemies as shields. Cruel but effective defensive tactic.</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/MookShield</t>
         </is>
       </c>
-      <c r="G337" t="inlineStr">
+      <c r="H337" t="inlineStr">
         <is>
           <t>Exposed Minion</t>
         </is>
@@ -13169,15 +14854,20 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target catches enemy blades with bare hands. Superhuman reaction and durability.</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/CatchingTheBlade</t>
         </is>
       </c>
-      <c r="G338" t="inlineStr">
+      <c r="H338" t="inlineStr">
         <is>
           <t>Cannot Catch Weapons</t>
         </is>
@@ -13206,15 +14896,20 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target trades in information professionally. Intel merchant.</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/KnowledgeBroker</t>
         </is>
       </c>
-      <c r="G339" t="inlineStr">
+      <c r="H339" t="inlineStr">
         <is>
           <t>Information Desert</t>
         </is>
@@ -13243,15 +14938,20 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target can follow trails impossibly well. Supernatural tracking.</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ScarilyCompetentTracker</t>
         </is>
       </c>
-      <c r="G340" t="inlineStr">
+      <c r="H340" t="inlineStr">
         <is>
           <t>Easily Lost Trail</t>
         </is>
@@ -13280,15 +14980,20 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Location has gap in surveillance. Unmonitored area.</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/SecurityBlindspot</t>
         </is>
       </c>
-      <c r="G341" t="inlineStr">
+      <c r="H341" t="inlineStr">
         <is>
           <t>Total Surveillance</t>
         </is>
@@ -13317,15 +15022,20 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target notices everything around them. Extreme alertness.</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/Hyperawareness</t>
         </is>
       </c>
-      <c r="G342" t="inlineStr">
+      <c r="H342" t="inlineStr">
         <is>
           <t>Tunnel Attention</t>
         </is>
@@ -13354,15 +15064,20 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target deduces information from observation. Detective vision.</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/SherlockScan</t>
         </is>
       </c>
-      <c r="G343" t="inlineStr">
+      <c r="H343" t="inlineStr">
         <is>
           <t>Surface Observation</t>
         </is>
@@ -13391,20 +15106,25 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target feels duty from their capabilities. Power obligates.</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/WithGreatPowerComesGreatResponsibility</t>
         </is>
       </c>
-      <c r="G344" t="inlineStr">
+      <c r="H344" t="inlineStr">
         <is>
           <t>Might Makes Right</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
+      <c r="I344" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/MightMakesRight</t>
         </is>
@@ -13433,15 +15153,20 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target fights while providing medical care. Warrior healer.</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/CombatMedic</t>
         </is>
       </c>
-      <c r="G345" t="inlineStr">
+      <c r="H345" t="inlineStr">
         <is>
           <t>Combat Liability</t>
         </is>
@@ -13470,20 +15195,25 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's words inspire coordinated action. Speech that unites.</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/RallyingCry</t>
         </is>
       </c>
-      <c r="G346" t="inlineStr">
+      <c r="H346" t="inlineStr">
         <is>
           <t>Demoralizing Speech</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
+      <c r="I346" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/DemoralizingSpeech</t>
         </is>
@@ -13512,20 +15242,25 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target has practical urban survival knowledge. Wise to streets and danger.</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/StreetSmart</t>
         </is>
       </c>
-      <c r="G347" t="inlineStr">
+      <c r="H347" t="inlineStr">
         <is>
           <t>Urban Naive</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
+      <c r="I347" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/UrbanNaive</t>
         </is>
@@ -13554,15 +15289,20 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Local criminals protect their community. Good bad guys.</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/NeighborhoodfriendlyGangsters</t>
         </is>
       </c>
-      <c r="G348" t="inlineStr">
+      <c r="H348" t="inlineStr">
         <is>
           <t>Hostile Community</t>
         </is>
@@ -13591,15 +15331,20 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target has ally in law enforcement. Police connection.</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/FriendOnTheForce</t>
         </is>
       </c>
-      <c r="G349" t="inlineStr">
+      <c r="H349" t="inlineStr">
         <is>
           <t>Enemy in Authority</t>
         </is>
@@ -13628,15 +15373,20 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
+          <t>Target executes decisive attack that ends fights. Dramatic final blow that guarantees victory.</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
           <t>Uses</t>
         </is>
       </c>
-      <c r="F350" t="inlineStr">
+      <c r="G350" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/FinishingMove</t>
         </is>
       </c>
-      <c r="G350" t="inlineStr">
+      <c r="H350" t="inlineStr">
         <is>
           <t>Opening Strike</t>
         </is>
@@ -13665,15 +15415,20 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
+          <t>Target performs spinning kick with whirlwind force. Hits multiple enemies while moving.</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
           <t>Uses</t>
         </is>
       </c>
-      <c r="F351" t="inlineStr">
+      <c r="G351" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/HurricaneKick</t>
         </is>
       </c>
-      <c r="G351" t="inlineStr">
+      <c r="H351" t="inlineStr">
         <is>
           <t>Static Stance</t>
         </is>
@@ -13702,15 +15457,20 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
+          <t>Target's attack bypasses all defenses. No shield or armor can stop it.</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
           <t>Uses</t>
         </is>
       </c>
-      <c r="F352" t="inlineStr">
+      <c r="G352" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/UnblockableAttack</t>
         </is>
       </c>
-      <c r="G352" t="inlineStr">
+      <c r="H352" t="inlineStr">
         <is>
           <t>Easily Blocked</t>
         </is>
@@ -13739,15 +15499,20 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
+          <t>Target's footstep creates damaging shockwave. Combines movement with area damage.</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
           <t>Uses</t>
         </is>
       </c>
-      <c r="F353" t="inlineStr">
+      <c r="G353" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ShockwaveStomp</t>
         </is>
       </c>
-      <c r="G353" t="inlineStr">
+      <c r="H353" t="inlineStr">
         <is>
           <t>Silent Step</t>
         </is>
@@ -13776,15 +15541,20 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
+          <t>Target projects wave of raw energy. Versatile blast that can clear areas.</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
           <t>Uses</t>
         </is>
       </c>
-      <c r="F354" t="inlineStr">
+      <c r="G354" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/EnergyWave</t>
         </is>
       </c>
-      <c r="G354" t="inlineStr">
+      <c r="H354" t="inlineStr">
         <is>
           <t>Energy Drain</t>
         </is>
@@ -13813,15 +15583,20 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
+          <t>Target breathes fire like a dragon. Classic destructive ranged attack with area effect.</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
           <t>Uses</t>
         </is>
       </c>
-      <c r="F355" t="inlineStr">
+      <c r="G355" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/FireBreath</t>
         </is>
       </c>
-      <c r="G355" t="inlineStr">
+      <c r="H355" t="inlineStr">
         <is>
           <t>Ice Breath</t>
         </is>
@@ -13850,15 +15625,20 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
+          <t>Target fires freezing beam that can immobilize or damage. Combines damage with crowd control.</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
           <t>Uses</t>
         </is>
       </c>
-      <c r="F356" t="inlineStr">
+      <c r="G356" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/IceBeam</t>
         </is>
       </c>
-      <c r="G356" t="inlineStr">
+      <c r="H356" t="inlineStr">
         <is>
           <t>Heat Ray</t>
         </is>
@@ -13887,15 +15667,20 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
+          <t>Target calls down or projects electrical bolts. High damage with potential stunning effect.</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
           <t>Uses</t>
         </is>
       </c>
-      <c r="F357" t="inlineStr">
+      <c r="G357" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/LightningBolt</t>
         </is>
       </c>
-      <c r="G357" t="inlineStr">
+      <c r="H357" t="inlineStr">
         <is>
           <t>Grounding Strike</t>
         </is>
@@ -13924,15 +15709,20 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
+          <t>Target fires or throws stone projectiles with lethal force. Simple but devastating earthen attack.</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
           <t>Uses</t>
         </is>
       </c>
-      <c r="F358" t="inlineStr">
+      <c r="G358" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/StoneBullet</t>
         </is>
       </c>
-      <c r="G358" t="inlineStr">
+      <c r="H358" t="inlineStr">
         <is>
           <t>Sand Scatter</t>
         </is>
@@ -13961,15 +15751,20 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
+          <t>Target creates cutting wind blade. Invisible slicing attack from distance.</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
           <t>Uses</t>
         </is>
       </c>
-      <c r="F359" t="inlineStr">
+      <c r="G359" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/WindSlash</t>
         </is>
       </c>
-      <c r="G359" t="inlineStr">
+      <c r="H359" t="inlineStr">
         <is>
           <t>Vacuum Void</t>
         </is>
@@ -13998,15 +15793,20 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
+          <t>Target emits devastating sound waves. Can shatter objects and disorient enemies.</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
           <t>Uses</t>
         </is>
       </c>
-      <c r="F360" t="inlineStr">
+      <c r="G360" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/SonicScream</t>
         </is>
       </c>
-      <c r="G360" t="inlineStr">
+      <c r="H360" t="inlineStr">
         <is>
           <t>Silent Command</t>
         </is>
@@ -14035,15 +15835,20 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
+          <t>Target exhales or generates toxic fumes. Area denial and damage over time.</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
           <t>Uses</t>
         </is>
       </c>
-      <c r="F361" t="inlineStr">
+      <c r="G361" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/PoisonGas</t>
         </is>
       </c>
-      <c r="G361" t="inlineStr">
+      <c r="H361" t="inlineStr">
         <is>
           <t>Healing Mist</t>
         </is>
@@ -14072,15 +15877,20 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
+          <t>Target projects corrosive liquid. Damages armor and flesh, potentially melting defenses.</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
           <t>Uses</t>
         </is>
       </c>
-      <c r="F362" t="inlineStr">
+      <c r="G362" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/AcidSpray</t>
         </is>
       </c>
-      <c r="G362" t="inlineStr">
+      <c r="H362" t="inlineStr">
         <is>
           <t>Neutralizing Foam</t>
         </is>
@@ -14109,15 +15919,20 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
+          <t>Attack emerges from or through shadows. Surprise attacks from unexpected angles.</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
           <t>Uses</t>
         </is>
       </c>
-      <c r="F363" t="inlineStr">
+      <c r="G363" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ShadowStrike</t>
         </is>
       </c>
-      <c r="G363" t="inlineStr">
+      <c r="H363" t="inlineStr">
         <is>
           <t>Radiant Blow</t>
         </is>
@@ -14146,15 +15961,20 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
+          <t>Target teleports into attack position. Instant approach and strike.</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
           <t>Uses</t>
         </is>
       </c>
-      <c r="F364" t="inlineStr">
+      <c r="G364" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/FlashStepStrike</t>
         </is>
       </c>
-      <c r="G364" t="inlineStr">
+      <c r="H364" t="inlineStr">
         <is>
           <t>Slow Approach</t>
         </is>
@@ -14183,15 +16003,20 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
+          <t>Target's attacks ignore armor and barriers. Renders heavy protection useless.</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
           <t>Uses</t>
         </is>
       </c>
-      <c r="F365" t="inlineStr">
+      <c r="G365" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ArmorPiercingAttack</t>
         </is>
       </c>
-      <c r="G365" t="inlineStr">
+      <c r="H365" t="inlineStr">
         <is>
           <t>Armor Reinforcing</t>
         </is>
@@ -14220,15 +16045,20 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
+          <t>Target's attacks leave enemies dazed and unable to act. Disables without killing.</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
           <t>Uses</t>
         </is>
       </c>
-      <c r="F366" t="inlineStr">
+      <c r="G366" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/StunningStrike</t>
         </is>
       </c>
-      <c r="G366" t="inlineStr">
+      <c r="H366" t="inlineStr">
         <is>
           <t>Energizing Blow</t>
         </is>
@@ -14257,20 +16087,25 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target boosts morale and encourages others. Professional enthusiasm and support.</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/PomPomGirl</t>
         </is>
       </c>
-      <c r="G367" t="inlineStr">
+      <c r="H367" t="inlineStr">
         <is>
           <t>The Demoralizer</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
+      <c r="I367" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TheDemoralizer</t>
         </is>
@@ -14299,15 +16134,20 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
-      <c r="G368" t="inlineStr">
+          <t>Target identifies targets and guides attacks. Artillery observer role.</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
         <is>
           <t>The Blind Spot</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
+      <c r="I368" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TheBlindSpot</t>
         </is>
@@ -14336,20 +16176,25 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target excels at coordinated teamwork. Perfect partner in combo.</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/CombinationAttack</t>
         </is>
       </c>
-      <c r="G369" t="inlineStr">
+      <c r="H369" t="inlineStr">
         <is>
           <t>The Fumbler</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
+      <c r="I369" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TheFumbler</t>
         </is>
@@ -14378,20 +16223,25 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target provides moral guidance to group. Ethical voice.</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TheConscience</t>
         </is>
       </c>
-      <c r="G370" t="inlineStr">
+      <c r="H370" t="inlineStr">
         <is>
           <t>The Tempter</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
+      <c r="I370" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TheTempter</t>
         </is>
@@ -14420,20 +16270,25 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target knows vast amounts of information. Human library.</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TheSmartGuy</t>
         </is>
       </c>
-      <c r="G371" t="inlineStr">
+      <c r="H371" t="inlineStr">
         <is>
           <t>False Expert</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
+      <c r="I371" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/FalseExpert</t>
         </is>
@@ -14462,15 +16317,20 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
-      <c r="G372" t="inlineStr">
+          <t>Target watches for danger constantly. Designated sentinel.</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
         <is>
           <t>The Distracted Guard</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
+      <c r="I372" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TheDistractedGuard</t>
         </is>
@@ -14499,15 +16359,20 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
-      <c r="G373" t="inlineStr">
+          <t>Group shares memories or sensations. Collective consciousness.</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
         <is>
           <t>Memory Fog</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
+      <c r="I373" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/MemoryFog</t>
         </is>
@@ -14536,20 +16401,25 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target interprets languages or meanings. Communication bridge.</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TranslatorBuddy</t>
         </is>
       </c>
-      <c r="G374" t="inlineStr">
+      <c r="H374" t="inlineStr">
         <is>
           <t>The Babel Effect</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
+      <c r="I374" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TheBabelEffect</t>
         </is>
@@ -14578,15 +16448,20 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
-      <c r="G375" t="inlineStr">
+          <t>Target knows area intimately. Expert navigator.</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
         <is>
           <t>The Lost Navigator</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
+      <c r="I375" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TheLostNavigator</t>
         </is>
@@ -14615,20 +16490,25 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target knows everyone and makes connections. Social hub.</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TheFace</t>
         </is>
       </c>
-      <c r="G376" t="inlineStr">
+      <c r="H376" t="inlineStr">
         <is>
           <t>The Pariah</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
+      <c r="I376" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ThePariah</t>
         </is>
@@ -14657,20 +16537,25 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target provides urgent medical care. Field doctor.</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/CombatMedic</t>
         </is>
       </c>
-      <c r="G377" t="inlineStr">
+      <c r="H377" t="inlineStr">
         <is>
           <t>The Quack</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
+      <c r="I377" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TheQuack</t>
         </is>
@@ -14699,20 +16584,25 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target maintains and repairs technology. Computer helper.</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TheSmartGuy</t>
         </is>
       </c>
-      <c r="G378" t="inlineStr">
+      <c r="H378" t="inlineStr">
         <is>
           <t>The Gremlin</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
+      <c r="I378" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TheGremlin</t>
         </is>
@@ -14741,20 +16631,25 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target inspires others to action and excellence. Words that drive people forward.</t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TheMentor</t>
         </is>
       </c>
-      <c r="G379" t="inlineStr">
+      <c r="H379" t="inlineStr">
         <is>
           <t>The Defeatist</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
+      <c r="I379" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TheDefeatist</t>
         </is>
@@ -14783,15 +16678,20 @@
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
-      <c r="G380" t="inlineStr">
+          <t>Target always has needed items. Reliable supplier.</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
         <is>
           <t>The Hoarder</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
+      <c r="I380" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TheHoarder</t>
         </is>
@@ -14820,20 +16720,25 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target draws enemy attention deliberately. Professional distraction.</t>
         </is>
       </c>
       <c r="F381" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TheDecoy</t>
         </is>
       </c>
-      <c r="G381" t="inlineStr">
+      <c r="H381" t="inlineStr">
         <is>
           <t>The Wallflower</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
+      <c r="I381" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TheWallflower</t>
         </is>
@@ -14862,20 +16767,25 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target suppresses enemies for allies. Protective shooting.</t>
         </is>
       </c>
       <c r="F382" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/CoveringFire</t>
         </is>
       </c>
-      <c r="G382" t="inlineStr">
+      <c r="H382" t="inlineStr">
         <is>
           <t>Friendly Fire Risk</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
+      <c r="I382" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/FriendlyFireRisk</t>
         </is>
@@ -14904,20 +16814,25 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target provides strategic counsel. Planning specialist.</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/MissionControl</t>
         </is>
       </c>
-      <c r="G383" t="inlineStr">
+      <c r="H383" t="inlineStr">
         <is>
           <t>Bad Intel</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
+      <c r="I383" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/BadIntel</t>
         </is>
@@ -14946,20 +16861,25 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target brings good fortune to those nearby. Living good luck.</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/BornLucky</t>
         </is>
       </c>
-      <c r="G384" t="inlineStr">
+      <c r="H384" t="inlineStr">
         <is>
           <t>Walking Jinx</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
+      <c r="I384" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/WalkingJinx</t>
         </is>
@@ -14988,20 +16908,25 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target stabilizes others emotionally. Psychological foundation.</t>
         </is>
       </c>
       <c r="F385" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/MoralityChain</t>
         </is>
       </c>
-      <c r="G385" t="inlineStr">
+      <c r="H385" t="inlineStr">
         <is>
           <t>Anxiety Spiral</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
+      <c r="I385" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/AnxietySpiral</t>
         </is>
@@ -15030,20 +16955,25 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target fixes mechanical problems. Repair specialist.</t>
         </is>
       </c>
       <c r="F386" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TheEngineer</t>
         </is>
       </c>
-      <c r="G386" t="inlineStr">
+      <c r="H386" t="inlineStr">
         <is>
           <t>The Saboteur</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
+      <c r="I386" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TheSaboteur</t>
         </is>
@@ -15072,15 +17002,20 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
-      <c r="G387" t="inlineStr">
+          <t>Target carries equipment for group. Designated porter.</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
         <is>
           <t>Dead Weight</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
+      <c r="I387" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/DeadWeight</t>
         </is>
@@ -15109,15 +17044,20 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
-      <c r="G388" t="inlineStr">
+          <t>Target guards while others sleep. Nighttime sentinel.</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
         <is>
           <t>Deep Sleep</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
+      <c r="I388" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/DeepSleep</t>
         </is>
@@ -15146,20 +17086,25 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's mere presence motivates others. Aura of confidence.</t>
         </is>
       </c>
       <c r="F389" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TheMentor</t>
         </is>
       </c>
-      <c r="G389" t="inlineStr">
+      <c r="H389" t="inlineStr">
         <is>
           <t>Draining Presence</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
+      <c r="I389" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/DrainingPresence</t>
         </is>
@@ -15188,20 +17133,25 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target's shadow profile inspires fear. Scary outline.</t>
         </is>
       </c>
       <c r="F390" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/TheSilhouette</t>
         </is>
       </c>
-      <c r="G390" t="inlineStr">
+      <c r="H390" t="inlineStr">
         <is>
           <t>Harmless Outline</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
+      <c r="I390" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/HarmlessOutline</t>
         </is>
@@ -15230,20 +17180,25 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target gains classically muscular masculine physique. Greek god aesthetics.</t>
         </is>
       </c>
       <c r="F391" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/HeroicBuild</t>
         </is>
       </c>
-      <c r="G391" t="inlineStr">
+      <c r="H391" t="inlineStr">
         <is>
           <t>Scrawny Weakling</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
+      <c r="I391" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ScrawnyWeakling</t>
         </is>
@@ -15272,20 +17227,25 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target gains powerful build that's considered attractive. Strong is beautiful.</t>
         </is>
       </c>
       <c r="F392" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/AmazonianBeauty</t>
         </is>
       </c>
-      <c r="G392" t="inlineStr">
+      <c r="H392" t="inlineStr">
         <is>
           <t>No Guy Wants Amazon</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
+      <c r="I392" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/NoGuyWantsAmazon</t>
         </is>
@@ -15314,20 +17274,25 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target becomes androgynously beautiful young man. Pretty boy aesthetics.</t>
         </is>
       </c>
       <c r="F393" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/Bishonen</t>
         </is>
       </c>
-      <c r="G393" t="inlineStr">
+      <c r="H393" t="inlineStr">
         <is>
           <t>Gonk</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
+      <c r="I393" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/Gonk</t>
         </is>
@@ -15356,20 +17321,25 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target gains minor animal features. Cat ears, tail, or similar additions.</t>
         </is>
       </c>
       <c r="F394" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/LittleBitBeastly</t>
         </is>
       </c>
-      <c r="G394" t="inlineStr">
+      <c r="H394" t="inlineStr">
         <is>
           <t>Full Transformation</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
+      <c r="I394" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/FullTransformation</t>
         </is>
@@ -15398,20 +17368,25 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target grows functional wings. Flight capability with visible wings.</t>
         </is>
       </c>
       <c r="F395" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/WingedHumanoid</t>
         </is>
       </c>
-      <c r="G395" t="inlineStr">
+      <c r="H395" t="inlineStr">
         <is>
           <t>Clipped Wings</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
+      <c r="I395" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/ClippedWings</t>
         </is>
@@ -15440,20 +17415,25 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target gains controllable tail. Extra limb for balance and manipulation.</t>
         </is>
       </c>
       <c r="F396" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/PrehensileHair</t>
         </is>
       </c>
-      <c r="G396" t="inlineStr">
+      <c r="H396" t="inlineStr">
         <is>
           <t>Vestigial Tail</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
+      <c r="I396" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/VestigialTail</t>
         </is>
@@ -15482,20 +17462,25 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Target develops glowing or magical markings. Visible symbols of power.</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/PowerTattoo</t>
         </is>
       </c>
-      <c r="G397" t="inlineStr">
+      <c r="H397" t="inlineStr">
         <is>
           <t>Cursed Markings</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
+      <c r="I397" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/CursedMarkings</t>
         </is>
@@ -15524,20 +17509,25 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Fast but easily damaged fighter. Glass rocket.</t>
         </is>
       </c>
       <c r="F398" t="inlineStr">
         <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/FragileSpeedster</t>
         </is>
       </c>
-      <c r="G398" t="inlineStr">
+      <c r="H398" t="inlineStr">
         <is>
           <t>Mighty Glacier</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
+      <c r="I398" t="inlineStr">
         <is>
           <t>https://tvtropes.org/pmwiki/pmwiki.php/Main/MightyGlacier</t>
         </is>
